--- a/docs/DQC_US_0015/DQC_0015_MemberExclusions_V2.xlsx
+++ b/docs/DQC_US_0015/DQC_0015_MemberExclusions_V2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Google Drive/Committees/Data Quality Committee/Rules/2 - Guidance and Rules in Progress/2a - Contributed/DQC_0015/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/campbellpryde/Google Drive/Committees/Data Quality Committee/Rules/2 - Guidance and Rules in Progress/2a - Contributed/DQC_US_0015/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="78860" yWindow="21520" windowWidth="35720" windowHeight="21540" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="2380" windowWidth="35720" windowHeight="21540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="67">
   <si>
     <t>Dimensionality</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Prospective Adoption of New Accounting Pronouncements [Axis]</t>
+  </si>
+  <si>
+    <t>SubsidiaryIssuerMember</t>
+  </si>
+  <si>
+    <t>Subsidiary Issuer [Member]</t>
+  </si>
+  <si>
+    <t>QuantifyingMisstatementInCurrentYearFinancialStatementsByNatureOfErrorAxis</t>
+  </si>
+  <si>
+    <t>Nature of Error [Axis]</t>
   </si>
 </sst>
 </file>
@@ -638,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1322,18 +1334,26 @@
         <v>46</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
@@ -1352,13 +1372,13 @@
         <v>46</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1382,13 +1402,13 @@
         <v>46</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1412,17 +1432,70 @@
         <v>46</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="G26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H26" s="4"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/DQC_US_0015/DQC_0015_MemberExclusions_V2.xlsx
+++ b/docs/DQC_US_0015/DQC_0015_MemberExclusions_V2.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susanyount/Documents/dqc_us_rules/docs/DQC_US_0015/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="21120" yWindow="1520" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="83">
   <si>
     <t>Release version</t>
   </si>
@@ -225,42 +241,84 @@
   <si>
     <t>ChangeInAccountingEstimateByTypeAxis</t>
   </si>
+  <si>
+    <t>Partner Type [Axis]</t>
+  </si>
+  <si>
+    <t>PartnerTypeOfPartnersCapitalAccountAxis</t>
+  </si>
+  <si>
+    <t>Segments [Axis]</t>
+  </si>
+  <si>
+    <t>StatementBusinessSegmentsAxis</t>
+  </si>
+  <si>
+    <t>Corporate and Other [Member]</t>
+  </si>
+  <si>
+    <t>CorporateAndOtherMember</t>
+  </si>
+  <si>
+    <t>Corporate Segment [Member]</t>
+  </si>
+  <si>
+    <t>CorporateMember</t>
+  </si>
+  <si>
+    <t>Other Segments [Member]</t>
+  </si>
+  <si>
+    <t>AllOtherSegmentsMember</t>
+  </si>
+  <si>
+    <t>Unallocated Financing Receivables [Member]</t>
+  </si>
+  <si>
+    <t>UnallocatedFinancingReceivablesMember</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -271,59 +329,329 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="21.0"/>
-    <col customWidth="1" min="5" max="5" width="56.57"/>
-    <col customWidth="1" min="6" max="6" width="54.86"/>
-    <col customWidth="1" min="7" max="7" width="27.71"/>
-    <col customWidth="1" min="8" max="8" width="31.71"/>
-    <col customWidth="1" min="9" max="9" width="27.14"/>
-    <col customWidth="1" min="10" max="10" width="31.29"/>
-    <col customWidth="1" min="11" max="11" width="16.29"/>
-    <col customWidth="1" min="12" max="12" width="26.86"/>
-    <col customWidth="1" min="13" max="26" width="14.43"/>
+    <col min="1" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
+    <col min="6" max="6" width="54.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" customWidth="1"/>
+    <col min="13" max="26" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -361,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -389,7 +717,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -417,7 +745,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -445,7 +773,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -473,7 +801,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -501,7 +829,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -529,7 +857,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -559,7 +887,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -589,7 +917,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -619,7 +947,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,7 +977,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -679,7 +1007,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -709,7 +1037,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -739,7 +1067,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -769,7 +1097,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -799,37 +1127,37 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+      <c r="H17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -846,28 +1174,20 @@
         <v>40</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -896,16 +1216,16 @@
         <v>46</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -934,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -972,16 +1292,16 @@
         <v>46</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1010,16 +1330,16 @@
         <v>46</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1036,20 +1356,28 @@
         <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+      <c r="L23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1066,20 +1394,20 @@
         <v>40</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1096,20 +1424,20 @@
         <v>40</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1126,20 +1454,20 @@
         <v>40</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -1156,20 +1484,20 @@
         <v>40</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -1186,20 +1514,20 @@
         <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1216,92 +1544,194 @@
         <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="7"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1313,7 +1743,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1325,7 +1755,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1337,7 +1767,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1349,7 +1779,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1361,7 +1791,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1373,7 +1803,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1385,7 +1815,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1397,7 +1827,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1409,7 +1839,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1421,7 +1851,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1433,7 +1863,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1445,7 +1875,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1457,7 +1887,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1469,7 +1899,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1481,7 +1911,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1493,7 +1923,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1505,7 +1935,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1517,7 +1947,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1529,7 +1959,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1541,7 +1971,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1553,7 +1983,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1565,7 +1995,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1577,7 +2007,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -1589,7 +2019,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -1601,7 +2031,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1613,7 +2043,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1625,7 +2055,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -1637,7 +2067,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -1649,7 +2079,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -1661,7 +2091,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -1673,7 +2103,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -1685,7 +2115,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -1697,7 +2127,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -1709,7 +2139,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -1721,7 +2151,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -1733,7 +2163,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -1745,7 +2175,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -1757,7 +2187,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -1769,7 +2199,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -1781,7 +2211,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -1793,7 +2223,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -1805,7 +2235,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -1817,7 +2247,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -1829,7 +2259,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -1841,7 +2271,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -1853,7 +2283,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -1865,7 +2295,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -1877,7 +2307,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -1889,7 +2319,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -1901,7 +2331,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -1913,7 +2343,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -1925,7 +2355,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -1937,7 +2367,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -1949,7 +2379,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -1961,7 +2391,7 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -1973,7 +2403,7 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -1985,7 +2415,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -1997,7 +2427,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -2009,7 +2439,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -2021,7 +2451,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -2033,7 +2463,7 @@
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -2045,7 +2475,7 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -2057,7 +2487,7 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -2069,7 +2499,7 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -2081,7 +2511,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -2093,7 +2523,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -2105,7 +2535,7 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -2117,7 +2547,7 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -2129,7 +2559,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -2141,7 +2571,7 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -2153,7 +2583,7 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -2165,7 +2595,7 @@
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -2177,7 +2607,7 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -2189,7 +2619,7 @@
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -2201,7 +2631,7 @@
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -2213,7 +2643,7 @@
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -2225,7 +2655,7 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -2237,7 +2667,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -2249,7 +2679,7 @@
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -2261,7 +2691,7 @@
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -2273,7 +2703,7 @@
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -2285,7 +2715,7 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -2297,7 +2727,7 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -2309,7 +2739,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -2321,7 +2751,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -2333,7 +2763,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -2345,7 +2775,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -2357,7 +2787,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -2369,7 +2799,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -2381,7 +2811,7 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -2393,7 +2823,7 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -2405,7 +2835,7 @@
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -2417,7 +2847,7 @@
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -2429,7 +2859,7 @@
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -2441,7 +2871,7 @@
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -2453,7 +2883,7 @@
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -2465,7 +2895,7 @@
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -2477,7 +2907,7 @@
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -2489,7 +2919,7 @@
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -2501,7 +2931,7 @@
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -2513,7 +2943,7 @@
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -2525,7 +2955,7 @@
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -2537,7 +2967,7 @@
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -2549,7 +2979,7 @@
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -2561,7 +2991,7 @@
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -2573,7 +3003,7 @@
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -2585,7 +3015,7 @@
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -2597,7 +3027,7 @@
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -2609,7 +3039,7 @@
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -2621,7 +3051,7 @@
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -2633,7 +3063,7 @@
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -2645,7 +3075,7 @@
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -2657,7 +3087,7 @@
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -2669,7 +3099,7 @@
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -2681,7 +3111,7 @@
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -2693,7 +3123,7 @@
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -2705,7 +3135,7 @@
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -2717,7 +3147,7 @@
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -2729,7 +3159,7 @@
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -2741,7 +3171,7 @@
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -2753,7 +3183,7 @@
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -2765,7 +3195,7 @@
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -2777,7 +3207,7 @@
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -2789,7 +3219,7 @@
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -2801,7 +3231,7 @@
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -2813,7 +3243,7 @@
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -2825,7 +3255,7 @@
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -2837,7 +3267,7 @@
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -2849,7 +3279,7 @@
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -2861,7 +3291,7 @@
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -2873,7 +3303,7 @@
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -2885,7 +3315,7 @@
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -2897,7 +3327,7 @@
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -2909,7 +3339,7 @@
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -2921,7 +3351,7 @@
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -2933,7 +3363,7 @@
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -2945,7 +3375,7 @@
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -2957,7 +3387,7 @@
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -2969,7 +3399,7 @@
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -2981,7 +3411,7 @@
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -2993,7 +3423,7 @@
       <c r="K176" s="5"/>
       <c r="L176" s="5"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -3005,7 +3435,7 @@
       <c r="K177" s="5"/>
       <c r="L177" s="5"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -3017,7 +3447,7 @@
       <c r="K178" s="5"/>
       <c r="L178" s="5"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -3029,7 +3459,7 @@
       <c r="K179" s="5"/>
       <c r="L179" s="5"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -3041,7 +3471,7 @@
       <c r="K180" s="5"/>
       <c r="L180" s="5"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -3053,7 +3483,7 @@
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -3065,7 +3495,7 @@
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -3077,7 +3507,7 @@
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -3089,7 +3519,7 @@
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -3101,7 +3531,7 @@
       <c r="K185" s="5"/>
       <c r="L185" s="5"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -3113,7 +3543,7 @@
       <c r="K186" s="5"/>
       <c r="L186" s="5"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -3125,7 +3555,7 @@
       <c r="K187" s="5"/>
       <c r="L187" s="5"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -3137,7 +3567,7 @@
       <c r="K188" s="5"/>
       <c r="L188" s="5"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -3149,7 +3579,7 @@
       <c r="K189" s="5"/>
       <c r="L189" s="5"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -3161,7 +3591,7 @@
       <c r="K190" s="5"/>
       <c r="L190" s="5"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -3173,7 +3603,7 @@
       <c r="K191" s="5"/>
       <c r="L191" s="5"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -3185,7 +3615,7 @@
       <c r="K192" s="5"/>
       <c r="L192" s="5"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -3197,7 +3627,7 @@
       <c r="K193" s="5"/>
       <c r="L193" s="5"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -3209,7 +3639,7 @@
       <c r="K194" s="5"/>
       <c r="L194" s="5"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -3221,7 +3651,7 @@
       <c r="K195" s="5"/>
       <c r="L195" s="5"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -3233,7 +3663,7 @@
       <c r="K196" s="5"/>
       <c r="L196" s="5"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -3245,7 +3675,7 @@
       <c r="K197" s="5"/>
       <c r="L197" s="5"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -3257,7 +3687,7 @@
       <c r="K198" s="5"/>
       <c r="L198" s="5"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -3269,7 +3699,7 @@
       <c r="K199" s="5"/>
       <c r="L199" s="5"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -3281,7 +3711,7 @@
       <c r="K200" s="5"/>
       <c r="L200" s="5"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -3293,7 +3723,7 @@
       <c r="K201" s="5"/>
       <c r="L201" s="5"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -3305,7 +3735,7 @@
       <c r="K202" s="5"/>
       <c r="L202" s="5"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -3317,7 +3747,7 @@
       <c r="K203" s="5"/>
       <c r="L203" s="5"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -3329,7 +3759,7 @@
       <c r="K204" s="5"/>
       <c r="L204" s="5"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -3341,7 +3771,7 @@
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -3353,7 +3783,7 @@
       <c r="K206" s="5"/>
       <c r="L206" s="5"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -3365,7 +3795,7 @@
       <c r="K207" s="5"/>
       <c r="L207" s="5"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -3377,7 +3807,7 @@
       <c r="K208" s="5"/>
       <c r="L208" s="5"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -3389,7 +3819,7 @@
       <c r="K209" s="5"/>
       <c r="L209" s="5"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -3401,7 +3831,7 @@
       <c r="K210" s="5"/>
       <c r="L210" s="5"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -3413,7 +3843,7 @@
       <c r="K211" s="5"/>
       <c r="L211" s="5"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -3425,7 +3855,7 @@
       <c r="K212" s="5"/>
       <c r="L212" s="5"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -3437,7 +3867,7 @@
       <c r="K213" s="5"/>
       <c r="L213" s="5"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -3449,7 +3879,7 @@
       <c r="K214" s="5"/>
       <c r="L214" s="5"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -3461,7 +3891,7 @@
       <c r="K215" s="5"/>
       <c r="L215" s="5"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -3473,7 +3903,7 @@
       <c r="K216" s="5"/>
       <c r="L216" s="5"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -3485,7 +3915,7 @@
       <c r="K217" s="5"/>
       <c r="L217" s="5"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -3497,7 +3927,7 @@
       <c r="K218" s="5"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -3509,7 +3939,7 @@
       <c r="K219" s="5"/>
       <c r="L219" s="5"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -3521,7 +3951,7 @@
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -3533,7 +3963,7 @@
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -3545,7 +3975,7 @@
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -3557,7 +3987,7 @@
       <c r="K223" s="5"/>
       <c r="L223" s="5"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -3569,7 +3999,7 @@
       <c r="K224" s="5"/>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -3581,7 +4011,7 @@
       <c r="K225" s="5"/>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -3593,7 +4023,7 @@
       <c r="K226" s="5"/>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -3605,7 +4035,7 @@
       <c r="K227" s="5"/>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -3617,7 +4047,7 @@
       <c r="K228" s="5"/>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -3629,7 +4059,7 @@
       <c r="K229" s="5"/>
       <c r="L229" s="5"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -3641,7 +4071,7 @@
       <c r="K230" s="5"/>
       <c r="L230" s="5"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -3653,7 +4083,7 @@
       <c r="K231" s="5"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -3665,7 +4095,7 @@
       <c r="K232" s="5"/>
       <c r="L232" s="5"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -3677,7 +4107,7 @@
       <c r="K233" s="5"/>
       <c r="L233" s="5"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -3689,7 +4119,7 @@
       <c r="K234" s="5"/>
       <c r="L234" s="5"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -3701,7 +4131,7 @@
       <c r="K235" s="5"/>
       <c r="L235" s="5"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -3713,7 +4143,7 @@
       <c r="K236" s="5"/>
       <c r="L236" s="5"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -3725,7 +4155,7 @@
       <c r="K237" s="5"/>
       <c r="L237" s="5"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -3737,7 +4167,7 @@
       <c r="K238" s="5"/>
       <c r="L238" s="5"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -3749,7 +4179,7 @@
       <c r="K239" s="5"/>
       <c r="L239" s="5"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -3761,7 +4191,7 @@
       <c r="K240" s="5"/>
       <c r="L240" s="5"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -3773,7 +4203,7 @@
       <c r="K241" s="5"/>
       <c r="L241" s="5"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -3785,7 +4215,7 @@
       <c r="K242" s="5"/>
       <c r="L242" s="5"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -3797,7 +4227,7 @@
       <c r="K243" s="5"/>
       <c r="L243" s="5"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -3809,7 +4239,7 @@
       <c r="K244" s="5"/>
       <c r="L244" s="5"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -3821,7 +4251,7 @@
       <c r="K245" s="5"/>
       <c r="L245" s="5"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -3833,7 +4263,7 @@
       <c r="K246" s="5"/>
       <c r="L246" s="5"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -3845,7 +4275,7 @@
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -3857,7 +4287,7 @@
       <c r="K248" s="5"/>
       <c r="L248" s="5"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -3869,7 +4299,7 @@
       <c r="K249" s="5"/>
       <c r="L249" s="5"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -3881,7 +4311,7 @@
       <c r="K250" s="5"/>
       <c r="L250" s="5"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -3893,7 +4323,7 @@
       <c r="K251" s="5"/>
       <c r="L251" s="5"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -3905,7 +4335,7 @@
       <c r="K252" s="5"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -3917,7 +4347,7 @@
       <c r="K253" s="5"/>
       <c r="L253" s="5"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -3929,7 +4359,7 @@
       <c r="K254" s="5"/>
       <c r="L254" s="5"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -3941,7 +4371,7 @@
       <c r="K255" s="5"/>
       <c r="L255" s="5"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -3953,7 +4383,7 @@
       <c r="K256" s="5"/>
       <c r="L256" s="5"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -3965,7 +4395,7 @@
       <c r="K257" s="5"/>
       <c r="L257" s="5"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -3977,7 +4407,7 @@
       <c r="K258" s="5"/>
       <c r="L258" s="5"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -3989,7 +4419,7 @@
       <c r="K259" s="5"/>
       <c r="L259" s="5"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -4001,7 +4431,7 @@
       <c r="K260" s="5"/>
       <c r="L260" s="5"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -4013,7 +4443,7 @@
       <c r="K261" s="5"/>
       <c r="L261" s="5"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -4025,7 +4455,7 @@
       <c r="K262" s="5"/>
       <c r="L262" s="5"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -4037,7 +4467,7 @@
       <c r="K263" s="5"/>
       <c r="L263" s="5"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -4049,7 +4479,7 @@
       <c r="K264" s="5"/>
       <c r="L264" s="5"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -4061,7 +4491,7 @@
       <c r="K265" s="5"/>
       <c r="L265" s="5"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -4073,7 +4503,7 @@
       <c r="K266" s="5"/>
       <c r="L266" s="5"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -4085,7 +4515,7 @@
       <c r="K267" s="5"/>
       <c r="L267" s="5"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -4097,7 +4527,7 @@
       <c r="K268" s="5"/>
       <c r="L268" s="5"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -4109,7 +4539,7 @@
       <c r="K269" s="5"/>
       <c r="L269" s="5"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -4121,7 +4551,7 @@
       <c r="K270" s="5"/>
       <c r="L270" s="5"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -4133,7 +4563,7 @@
       <c r="K271" s="5"/>
       <c r="L271" s="5"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -4145,7 +4575,7 @@
       <c r="K272" s="5"/>
       <c r="L272" s="5"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -4157,7 +4587,7 @@
       <c r="K273" s="5"/>
       <c r="L273" s="5"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -4169,7 +4599,7 @@
       <c r="K274" s="5"/>
       <c r="L274" s="5"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -4181,7 +4611,7 @@
       <c r="K275" s="5"/>
       <c r="L275" s="5"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -4193,7 +4623,7 @@
       <c r="K276" s="5"/>
       <c r="L276" s="5"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -4205,7 +4635,7 @@
       <c r="K277" s="5"/>
       <c r="L277" s="5"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -4217,7 +4647,7 @@
       <c r="K278" s="5"/>
       <c r="L278" s="5"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -4229,7 +4659,7 @@
       <c r="K279" s="5"/>
       <c r="L279" s="5"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -4241,7 +4671,7 @@
       <c r="K280" s="5"/>
       <c r="L280" s="5"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -4253,7 +4683,7 @@
       <c r="K281" s="5"/>
       <c r="L281" s="5"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -4265,7 +4695,7 @@
       <c r="K282" s="5"/>
       <c r="L282" s="5"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -4277,7 +4707,7 @@
       <c r="K283" s="5"/>
       <c r="L283" s="5"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -4289,7 +4719,7 @@
       <c r="K284" s="5"/>
       <c r="L284" s="5"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -4301,7 +4731,7 @@
       <c r="K285" s="5"/>
       <c r="L285" s="5"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -4313,7 +4743,7 @@
       <c r="K286" s="5"/>
       <c r="L286" s="5"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -4325,7 +4755,7 @@
       <c r="K287" s="5"/>
       <c r="L287" s="5"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -4337,7 +4767,7 @@
       <c r="K288" s="5"/>
       <c r="L288" s="5"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -4349,7 +4779,7 @@
       <c r="K289" s="5"/>
       <c r="L289" s="5"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -4361,7 +4791,7 @@
       <c r="K290" s="5"/>
       <c r="L290" s="5"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -4373,7 +4803,7 @@
       <c r="K291" s="5"/>
       <c r="L291" s="5"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -4385,7 +4815,7 @@
       <c r="K292" s="5"/>
       <c r="L292" s="5"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -4397,7 +4827,7 @@
       <c r="K293" s="5"/>
       <c r="L293" s="5"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -4409,7 +4839,7 @@
       <c r="K294" s="5"/>
       <c r="L294" s="5"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -4421,7 +4851,7 @@
       <c r="K295" s="5"/>
       <c r="L295" s="5"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -4433,7 +4863,7 @@
       <c r="K296" s="5"/>
       <c r="L296" s="5"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -4445,7 +4875,7 @@
       <c r="K297" s="5"/>
       <c r="L297" s="5"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -4457,7 +4887,7 @@
       <c r="K298" s="5"/>
       <c r="L298" s="5"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -4469,7 +4899,7 @@
       <c r="K299" s="5"/>
       <c r="L299" s="5"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -4481,7 +4911,7 @@
       <c r="K300" s="5"/>
       <c r="L300" s="5"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -4493,7 +4923,7 @@
       <c r="K301" s="5"/>
       <c r="L301" s="5"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -4505,7 +4935,7 @@
       <c r="K302" s="5"/>
       <c r="L302" s="5"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -4517,7 +4947,7 @@
       <c r="K303" s="5"/>
       <c r="L303" s="5"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -4529,7 +4959,7 @@
       <c r="K304" s="5"/>
       <c r="L304" s="5"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -4541,7 +4971,7 @@
       <c r="K305" s="5"/>
       <c r="L305" s="5"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -4553,7 +4983,7 @@
       <c r="K306" s="5"/>
       <c r="L306" s="5"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -4565,7 +4995,7 @@
       <c r="K307" s="5"/>
       <c r="L307" s="5"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -4577,7 +5007,7 @@
       <c r="K308" s="5"/>
       <c r="L308" s="5"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -4589,7 +5019,7 @@
       <c r="K309" s="5"/>
       <c r="L309" s="5"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -4601,7 +5031,7 @@
       <c r="K310" s="5"/>
       <c r="L310" s="5"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -4613,7 +5043,7 @@
       <c r="K311" s="5"/>
       <c r="L311" s="5"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -4625,7 +5055,7 @@
       <c r="K312" s="5"/>
       <c r="L312" s="5"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -4637,7 +5067,7 @@
       <c r="K313" s="5"/>
       <c r="L313" s="5"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -4649,7 +5079,7 @@
       <c r="K314" s="5"/>
       <c r="L314" s="5"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -4661,7 +5091,7 @@
       <c r="K315" s="5"/>
       <c r="L315" s="5"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -4673,7 +5103,7 @@
       <c r="K316" s="5"/>
       <c r="L316" s="5"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -4685,7 +5115,7 @@
       <c r="K317" s="5"/>
       <c r="L317" s="5"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -4697,7 +5127,7 @@
       <c r="K318" s="5"/>
       <c r="L318" s="5"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -4709,7 +5139,7 @@
       <c r="K319" s="5"/>
       <c r="L319" s="5"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -4721,7 +5151,7 @@
       <c r="K320" s="5"/>
       <c r="L320" s="5"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -4733,7 +5163,7 @@
       <c r="K321" s="5"/>
       <c r="L321" s="5"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -4745,7 +5175,7 @@
       <c r="K322" s="5"/>
       <c r="L322" s="5"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -4757,7 +5187,7 @@
       <c r="K323" s="5"/>
       <c r="L323" s="5"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -4769,7 +5199,7 @@
       <c r="K324" s="5"/>
       <c r="L324" s="5"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -4781,7 +5211,7 @@
       <c r="K325" s="5"/>
       <c r="L325" s="5"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -4793,7 +5223,7 @@
       <c r="K326" s="5"/>
       <c r="L326" s="5"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -4805,7 +5235,7 @@
       <c r="K327" s="5"/>
       <c r="L327" s="5"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -4817,7 +5247,7 @@
       <c r="K328" s="5"/>
       <c r="L328" s="5"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -4829,7 +5259,7 @@
       <c r="K329" s="5"/>
       <c r="L329" s="5"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -4841,7 +5271,7 @@
       <c r="K330" s="5"/>
       <c r="L330" s="5"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -4853,7 +5283,7 @@
       <c r="K331" s="5"/>
       <c r="L331" s="5"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -4865,7 +5295,7 @@
       <c r="K332" s="5"/>
       <c r="L332" s="5"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -4877,7 +5307,7 @@
       <c r="K333" s="5"/>
       <c r="L333" s="5"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -4889,7 +5319,7 @@
       <c r="K334" s="5"/>
       <c r="L334" s="5"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -4901,7 +5331,7 @@
       <c r="K335" s="5"/>
       <c r="L335" s="5"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -4913,7 +5343,7 @@
       <c r="K336" s="5"/>
       <c r="L336" s="5"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -4925,7 +5355,7 @@
       <c r="K337" s="5"/>
       <c r="L337" s="5"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -4937,7 +5367,7 @@
       <c r="K338" s="5"/>
       <c r="L338" s="5"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -4949,7 +5379,7 @@
       <c r="K339" s="5"/>
       <c r="L339" s="5"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -4961,7 +5391,7 @@
       <c r="K340" s="5"/>
       <c r="L340" s="5"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -4973,7 +5403,7 @@
       <c r="K341" s="5"/>
       <c r="L341" s="5"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -4985,7 +5415,7 @@
       <c r="K342" s="5"/>
       <c r="L342" s="5"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -4997,7 +5427,7 @@
       <c r="K343" s="5"/>
       <c r="L343" s="5"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -5009,7 +5439,7 @@
       <c r="K344" s="5"/>
       <c r="L344" s="5"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -5021,7 +5451,7 @@
       <c r="K345" s="5"/>
       <c r="L345" s="5"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -5033,7 +5463,7 @@
       <c r="K346" s="5"/>
       <c r="L346" s="5"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -5045,7 +5475,7 @@
       <c r="K347" s="5"/>
       <c r="L347" s="5"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -5057,7 +5487,7 @@
       <c r="K348" s="5"/>
       <c r="L348" s="5"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -5069,7 +5499,7 @@
       <c r="K349" s="5"/>
       <c r="L349" s="5"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -5081,7 +5511,7 @@
       <c r="K350" s="5"/>
       <c r="L350" s="5"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -5093,7 +5523,7 @@
       <c r="K351" s="5"/>
       <c r="L351" s="5"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -5105,7 +5535,7 @@
       <c r="K352" s="5"/>
       <c r="L352" s="5"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -5117,7 +5547,7 @@
       <c r="K353" s="5"/>
       <c r="L353" s="5"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -5129,7 +5559,7 @@
       <c r="K354" s="5"/>
       <c r="L354" s="5"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -5141,7 +5571,7 @@
       <c r="K355" s="5"/>
       <c r="L355" s="5"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -5153,7 +5583,7 @@
       <c r="K356" s="5"/>
       <c r="L356" s="5"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -5165,7 +5595,7 @@
       <c r="K357" s="5"/>
       <c r="L357" s="5"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -5177,7 +5607,7 @@
       <c r="K358" s="5"/>
       <c r="L358" s="5"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -5189,7 +5619,7 @@
       <c r="K359" s="5"/>
       <c r="L359" s="5"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -5201,7 +5631,7 @@
       <c r="K360" s="5"/>
       <c r="L360" s="5"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -5213,7 +5643,7 @@
       <c r="K361" s="5"/>
       <c r="L361" s="5"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -5225,7 +5655,7 @@
       <c r="K362" s="5"/>
       <c r="L362" s="5"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -5237,7 +5667,7 @@
       <c r="K363" s="5"/>
       <c r="L363" s="5"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -5249,7 +5679,7 @@
       <c r="K364" s="5"/>
       <c r="L364" s="5"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -5261,7 +5691,7 @@
       <c r="K365" s="5"/>
       <c r="L365" s="5"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -5273,7 +5703,7 @@
       <c r="K366" s="5"/>
       <c r="L366" s="5"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -5285,7 +5715,7 @@
       <c r="K367" s="5"/>
       <c r="L367" s="5"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -5297,7 +5727,7 @@
       <c r="K368" s="5"/>
       <c r="L368" s="5"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -5309,7 +5739,7 @@
       <c r="K369" s="5"/>
       <c r="L369" s="5"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -5321,7 +5751,7 @@
       <c r="K370" s="5"/>
       <c r="L370" s="5"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -5333,7 +5763,7 @@
       <c r="K371" s="5"/>
       <c r="L371" s="5"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -5345,7 +5775,7 @@
       <c r="K372" s="5"/>
       <c r="L372" s="5"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -5357,7 +5787,7 @@
       <c r="K373" s="5"/>
       <c r="L373" s="5"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -5369,7 +5799,7 @@
       <c r="K374" s="5"/>
       <c r="L374" s="5"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -5381,7 +5811,7 @@
       <c r="K375" s="5"/>
       <c r="L375" s="5"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -5393,7 +5823,7 @@
       <c r="K376" s="5"/>
       <c r="L376" s="5"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -5405,7 +5835,7 @@
       <c r="K377" s="5"/>
       <c r="L377" s="5"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -5417,7 +5847,7 @@
       <c r="K378" s="5"/>
       <c r="L378" s="5"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -5429,7 +5859,7 @@
       <c r="K379" s="5"/>
       <c r="L379" s="5"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -5441,7 +5871,7 @@
       <c r="K380" s="5"/>
       <c r="L380" s="5"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -5453,7 +5883,7 @@
       <c r="K381" s="5"/>
       <c r="L381" s="5"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -5465,7 +5895,7 @@
       <c r="K382" s="5"/>
       <c r="L382" s="5"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -5477,7 +5907,7 @@
       <c r="K383" s="5"/>
       <c r="L383" s="5"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -5489,7 +5919,7 @@
       <c r="K384" s="5"/>
       <c r="L384" s="5"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -5501,7 +5931,7 @@
       <c r="K385" s="5"/>
       <c r="L385" s="5"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -5513,7 +5943,7 @@
       <c r="K386" s="5"/>
       <c r="L386" s="5"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -5525,7 +5955,7 @@
       <c r="K387" s="5"/>
       <c r="L387" s="5"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -5537,7 +5967,7 @@
       <c r="K388" s="5"/>
       <c r="L388" s="5"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -5549,7 +5979,7 @@
       <c r="K389" s="5"/>
       <c r="L389" s="5"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -5561,7 +5991,7 @@
       <c r="K390" s="5"/>
       <c r="L390" s="5"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -5573,7 +6003,7 @@
       <c r="K391" s="5"/>
       <c r="L391" s="5"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -5585,7 +6015,7 @@
       <c r="K392" s="5"/>
       <c r="L392" s="5"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -5597,7 +6027,7 @@
       <c r="K393" s="5"/>
       <c r="L393" s="5"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -5609,7 +6039,7 @@
       <c r="K394" s="5"/>
       <c r="L394" s="5"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -5621,7 +6051,7 @@
       <c r="K395" s="5"/>
       <c r="L395" s="5"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -5633,7 +6063,7 @@
       <c r="K396" s="5"/>
       <c r="L396" s="5"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -5645,7 +6075,7 @@
       <c r="K397" s="5"/>
       <c r="L397" s="5"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -5657,7 +6087,7 @@
       <c r="K398" s="5"/>
       <c r="L398" s="5"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -5669,7 +6099,7 @@
       <c r="K399" s="5"/>
       <c r="L399" s="5"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -5681,7 +6111,7 @@
       <c r="K400" s="5"/>
       <c r="L400" s="5"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -5693,7 +6123,7 @@
       <c r="K401" s="5"/>
       <c r="L401" s="5"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -5705,7 +6135,7 @@
       <c r="K402" s="5"/>
       <c r="L402" s="5"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -5717,7 +6147,7 @@
       <c r="K403" s="5"/>
       <c r="L403" s="5"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -5729,7 +6159,7 @@
       <c r="K404" s="5"/>
       <c r="L404" s="5"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -5741,7 +6171,7 @@
       <c r="K405" s="5"/>
       <c r="L405" s="5"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -5753,7 +6183,7 @@
       <c r="K406" s="5"/>
       <c r="L406" s="5"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -5765,7 +6195,7 @@
       <c r="K407" s="5"/>
       <c r="L407" s="5"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -5777,7 +6207,7 @@
       <c r="K408" s="5"/>
       <c r="L408" s="5"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -5789,7 +6219,7 @@
       <c r="K409" s="5"/>
       <c r="L409" s="5"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -5801,7 +6231,7 @@
       <c r="K410" s="5"/>
       <c r="L410" s="5"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -5813,7 +6243,7 @@
       <c r="K411" s="5"/>
       <c r="L411" s="5"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -5825,7 +6255,7 @@
       <c r="K412" s="5"/>
       <c r="L412" s="5"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -5837,7 +6267,7 @@
       <c r="K413" s="5"/>
       <c r="L413" s="5"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -5849,7 +6279,7 @@
       <c r="K414" s="5"/>
       <c r="L414" s="5"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -5861,7 +6291,7 @@
       <c r="K415" s="5"/>
       <c r="L415" s="5"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -5873,7 +6303,7 @@
       <c r="K416" s="5"/>
       <c r="L416" s="5"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -5885,7 +6315,7 @@
       <c r="K417" s="5"/>
       <c r="L417" s="5"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -5897,7 +6327,7 @@
       <c r="K418" s="5"/>
       <c r="L418" s="5"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -5909,7 +6339,7 @@
       <c r="K419" s="5"/>
       <c r="L419" s="5"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -5921,7 +6351,7 @@
       <c r="K420" s="5"/>
       <c r="L420" s="5"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -5933,7 +6363,7 @@
       <c r="K421" s="5"/>
       <c r="L421" s="5"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -5945,7 +6375,7 @@
       <c r="K422" s="5"/>
       <c r="L422" s="5"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -5957,7 +6387,7 @@
       <c r="K423" s="5"/>
       <c r="L423" s="5"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -5969,7 +6399,7 @@
       <c r="K424" s="5"/>
       <c r="L424" s="5"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -5981,7 +6411,7 @@
       <c r="K425" s="5"/>
       <c r="L425" s="5"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -5993,7 +6423,7 @@
       <c r="K426" s="5"/>
       <c r="L426" s="5"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -6005,7 +6435,7 @@
       <c r="K427" s="5"/>
       <c r="L427" s="5"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -6017,7 +6447,7 @@
       <c r="K428" s="5"/>
       <c r="L428" s="5"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -6029,7 +6459,7 @@
       <c r="K429" s="5"/>
       <c r="L429" s="5"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -6041,7 +6471,7 @@
       <c r="K430" s="5"/>
       <c r="L430" s="5"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -6053,7 +6483,7 @@
       <c r="K431" s="5"/>
       <c r="L431" s="5"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -6065,7 +6495,7 @@
       <c r="K432" s="5"/>
       <c r="L432" s="5"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -6077,7 +6507,7 @@
       <c r="K433" s="5"/>
       <c r="L433" s="5"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -6089,7 +6519,7 @@
       <c r="K434" s="5"/>
       <c r="L434" s="5"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -6101,7 +6531,7 @@
       <c r="K435" s="5"/>
       <c r="L435" s="5"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -6113,7 +6543,7 @@
       <c r="K436" s="5"/>
       <c r="L436" s="5"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -6125,7 +6555,7 @@
       <c r="K437" s="5"/>
       <c r="L437" s="5"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -6137,7 +6567,7 @@
       <c r="K438" s="5"/>
       <c r="L438" s="5"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -6149,7 +6579,7 @@
       <c r="K439" s="5"/>
       <c r="L439" s="5"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -6161,7 +6591,7 @@
       <c r="K440" s="5"/>
       <c r="L440" s="5"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -6173,7 +6603,7 @@
       <c r="K441" s="5"/>
       <c r="L441" s="5"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -6185,7 +6615,7 @@
       <c r="K442" s="5"/>
       <c r="L442" s="5"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -6197,7 +6627,7 @@
       <c r="K443" s="5"/>
       <c r="L443" s="5"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -6209,7 +6639,7 @@
       <c r="K444" s="5"/>
       <c r="L444" s="5"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -6221,7 +6651,7 @@
       <c r="K445" s="5"/>
       <c r="L445" s="5"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -6233,7 +6663,7 @@
       <c r="K446" s="5"/>
       <c r="L446" s="5"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -6245,7 +6675,7 @@
       <c r="K447" s="5"/>
       <c r="L447" s="5"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -6257,7 +6687,7 @@
       <c r="K448" s="5"/>
       <c r="L448" s="5"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -6269,7 +6699,7 @@
       <c r="K449" s="5"/>
       <c r="L449" s="5"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -6281,7 +6711,7 @@
       <c r="K450" s="5"/>
       <c r="L450" s="5"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -6293,7 +6723,7 @@
       <c r="K451" s="5"/>
       <c r="L451" s="5"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -6305,7 +6735,7 @@
       <c r="K452" s="5"/>
       <c r="L452" s="5"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -6317,7 +6747,7 @@
       <c r="K453" s="5"/>
       <c r="L453" s="5"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -6329,7 +6759,7 @@
       <c r="K454" s="5"/>
       <c r="L454" s="5"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -6341,7 +6771,7 @@
       <c r="K455" s="5"/>
       <c r="L455" s="5"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -6353,7 +6783,7 @@
       <c r="K456" s="5"/>
       <c r="L456" s="5"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -6365,7 +6795,7 @@
       <c r="K457" s="5"/>
       <c r="L457" s="5"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -6377,7 +6807,7 @@
       <c r="K458" s="5"/>
       <c r="L458" s="5"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -6389,7 +6819,7 @@
       <c r="K459" s="5"/>
       <c r="L459" s="5"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -6401,7 +6831,7 @@
       <c r="K460" s="5"/>
       <c r="L460" s="5"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -6413,7 +6843,7 @@
       <c r="K461" s="5"/>
       <c r="L461" s="5"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -6425,7 +6855,7 @@
       <c r="K462" s="5"/>
       <c r="L462" s="5"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -6437,7 +6867,7 @@
       <c r="K463" s="5"/>
       <c r="L463" s="5"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -6449,7 +6879,7 @@
       <c r="K464" s="5"/>
       <c r="L464" s="5"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -6461,7 +6891,7 @@
       <c r="K465" s="5"/>
       <c r="L465" s="5"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -6473,7 +6903,7 @@
       <c r="K466" s="5"/>
       <c r="L466" s="5"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -6485,7 +6915,7 @@
       <c r="K467" s="5"/>
       <c r="L467" s="5"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -6497,7 +6927,7 @@
       <c r="K468" s="5"/>
       <c r="L468" s="5"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -6509,7 +6939,7 @@
       <c r="K469" s="5"/>
       <c r="L469" s="5"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -6521,7 +6951,7 @@
       <c r="K470" s="5"/>
       <c r="L470" s="5"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -6533,7 +6963,7 @@
       <c r="K471" s="5"/>
       <c r="L471" s="5"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -6545,7 +6975,7 @@
       <c r="K472" s="5"/>
       <c r="L472" s="5"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -6557,7 +6987,7 @@
       <c r="K473" s="5"/>
       <c r="L473" s="5"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -6569,7 +6999,7 @@
       <c r="K474" s="5"/>
       <c r="L474" s="5"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -6581,7 +7011,7 @@
       <c r="K475" s="5"/>
       <c r="L475" s="5"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -6593,7 +7023,7 @@
       <c r="K476" s="5"/>
       <c r="L476" s="5"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -6605,7 +7035,7 @@
       <c r="K477" s="5"/>
       <c r="L477" s="5"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -6617,7 +7047,7 @@
       <c r="K478" s="5"/>
       <c r="L478" s="5"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -6629,7 +7059,7 @@
       <c r="K479" s="5"/>
       <c r="L479" s="5"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -6641,7 +7071,7 @@
       <c r="K480" s="5"/>
       <c r="L480" s="5"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -6653,7 +7083,7 @@
       <c r="K481" s="5"/>
       <c r="L481" s="5"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -6665,7 +7095,7 @@
       <c r="K482" s="5"/>
       <c r="L482" s="5"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -6677,7 +7107,7 @@
       <c r="K483" s="5"/>
       <c r="L483" s="5"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -6689,7 +7119,7 @@
       <c r="K484" s="5"/>
       <c r="L484" s="5"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -6701,7 +7131,7 @@
       <c r="K485" s="5"/>
       <c r="L485" s="5"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -6713,7 +7143,7 @@
       <c r="K486" s="5"/>
       <c r="L486" s="5"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -6725,7 +7155,7 @@
       <c r="K487" s="5"/>
       <c r="L487" s="5"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -6737,7 +7167,7 @@
       <c r="K488" s="5"/>
       <c r="L488" s="5"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -6749,7 +7179,7 @@
       <c r="K489" s="5"/>
       <c r="L489" s="5"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -6761,7 +7191,7 @@
       <c r="K490" s="5"/>
       <c r="L490" s="5"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -6773,7 +7203,7 @@
       <c r="K491" s="5"/>
       <c r="L491" s="5"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -6785,7 +7215,7 @@
       <c r="K492" s="5"/>
       <c r="L492" s="5"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -6797,7 +7227,7 @@
       <c r="K493" s="5"/>
       <c r="L493" s="5"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -6809,7 +7239,7 @@
       <c r="K494" s="5"/>
       <c r="L494" s="5"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -6821,7 +7251,7 @@
       <c r="K495" s="5"/>
       <c r="L495" s="5"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -6833,7 +7263,7 @@
       <c r="K496" s="5"/>
       <c r="L496" s="5"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -6845,7 +7275,7 @@
       <c r="K497" s="5"/>
       <c r="L497" s="5"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -6857,7 +7287,7 @@
       <c r="K498" s="5"/>
       <c r="L498" s="5"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -6869,7 +7299,7 @@
       <c r="K499" s="5"/>
       <c r="L499" s="5"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -6881,7 +7311,7 @@
       <c r="K500" s="5"/>
       <c r="L500" s="5"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -6893,7 +7323,7 @@
       <c r="K501" s="5"/>
       <c r="L501" s="5"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -6905,7 +7335,7 @@
       <c r="K502" s="5"/>
       <c r="L502" s="5"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -6917,7 +7347,7 @@
       <c r="K503" s="5"/>
       <c r="L503" s="5"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -6929,7 +7359,7 @@
       <c r="K504" s="5"/>
       <c r="L504" s="5"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -6941,7 +7371,7 @@
       <c r="K505" s="5"/>
       <c r="L505" s="5"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -6953,7 +7383,7 @@
       <c r="K506" s="5"/>
       <c r="L506" s="5"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -6965,7 +7395,7 @@
       <c r="K507" s="5"/>
       <c r="L507" s="5"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -6977,7 +7407,7 @@
       <c r="K508" s="5"/>
       <c r="L508" s="5"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -6989,7 +7419,7 @@
       <c r="K509" s="5"/>
       <c r="L509" s="5"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -7001,7 +7431,7 @@
       <c r="K510" s="5"/>
       <c r="L510" s="5"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -7013,7 +7443,7 @@
       <c r="K511" s="5"/>
       <c r="L511" s="5"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -7025,7 +7455,7 @@
       <c r="K512" s="5"/>
       <c r="L512" s="5"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -7037,7 +7467,7 @@
       <c r="K513" s="5"/>
       <c r="L513" s="5"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -7049,7 +7479,7 @@
       <c r="K514" s="5"/>
       <c r="L514" s="5"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -7061,7 +7491,7 @@
       <c r="K515" s="5"/>
       <c r="L515" s="5"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -7073,7 +7503,7 @@
       <c r="K516" s="5"/>
       <c r="L516" s="5"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -7085,7 +7515,7 @@
       <c r="K517" s="5"/>
       <c r="L517" s="5"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -7097,7 +7527,7 @@
       <c r="K518" s="5"/>
       <c r="L518" s="5"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -7109,7 +7539,7 @@
       <c r="K519" s="5"/>
       <c r="L519" s="5"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -7121,7 +7551,7 @@
       <c r="K520" s="5"/>
       <c r="L520" s="5"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -7133,7 +7563,7 @@
       <c r="K521" s="5"/>
       <c r="L521" s="5"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -7145,7 +7575,7 @@
       <c r="K522" s="5"/>
       <c r="L522" s="5"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -7157,7 +7587,7 @@
       <c r="K523" s="5"/>
       <c r="L523" s="5"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -7169,7 +7599,7 @@
       <c r="K524" s="5"/>
       <c r="L524" s="5"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -7181,7 +7611,7 @@
       <c r="K525" s="5"/>
       <c r="L525" s="5"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -7193,7 +7623,7 @@
       <c r="K526" s="5"/>
       <c r="L526" s="5"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -7205,7 +7635,7 @@
       <c r="K527" s="5"/>
       <c r="L527" s="5"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -7217,7 +7647,7 @@
       <c r="K528" s="5"/>
       <c r="L528" s="5"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -7229,7 +7659,7 @@
       <c r="K529" s="5"/>
       <c r="L529" s="5"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -7241,7 +7671,7 @@
       <c r="K530" s="5"/>
       <c r="L530" s="5"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -7253,7 +7683,7 @@
       <c r="K531" s="5"/>
       <c r="L531" s="5"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -7265,7 +7695,7 @@
       <c r="K532" s="5"/>
       <c r="L532" s="5"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -7277,7 +7707,7 @@
       <c r="K533" s="5"/>
       <c r="L533" s="5"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -7289,7 +7719,7 @@
       <c r="K534" s="5"/>
       <c r="L534" s="5"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -7301,7 +7731,7 @@
       <c r="K535" s="5"/>
       <c r="L535" s="5"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -7313,7 +7743,7 @@
       <c r="K536" s="5"/>
       <c r="L536" s="5"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -7325,7 +7755,7 @@
       <c r="K537" s="5"/>
       <c r="L537" s="5"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -7337,7 +7767,7 @@
       <c r="K538" s="5"/>
       <c r="L538" s="5"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -7349,7 +7779,7 @@
       <c r="K539" s="5"/>
       <c r="L539" s="5"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -7361,7 +7791,7 @@
       <c r="K540" s="5"/>
       <c r="L540" s="5"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -7373,7 +7803,7 @@
       <c r="K541" s="5"/>
       <c r="L541" s="5"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -7385,7 +7815,7 @@
       <c r="K542" s="5"/>
       <c r="L542" s="5"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -7397,7 +7827,7 @@
       <c r="K543" s="5"/>
       <c r="L543" s="5"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -7409,7 +7839,7 @@
       <c r="K544" s="5"/>
       <c r="L544" s="5"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -7421,7 +7851,7 @@
       <c r="K545" s="5"/>
       <c r="L545" s="5"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -7433,7 +7863,7 @@
       <c r="K546" s="5"/>
       <c r="L546" s="5"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -7445,7 +7875,7 @@
       <c r="K547" s="5"/>
       <c r="L547" s="5"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -7457,7 +7887,7 @@
       <c r="K548" s="5"/>
       <c r="L548" s="5"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -7469,7 +7899,7 @@
       <c r="K549" s="5"/>
       <c r="L549" s="5"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -7481,7 +7911,7 @@
       <c r="K550" s="5"/>
       <c r="L550" s="5"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -7493,7 +7923,7 @@
       <c r="K551" s="5"/>
       <c r="L551" s="5"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -7505,7 +7935,7 @@
       <c r="K552" s="5"/>
       <c r="L552" s="5"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -7517,7 +7947,7 @@
       <c r="K553" s="5"/>
       <c r="L553" s="5"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -7529,7 +7959,7 @@
       <c r="K554" s="5"/>
       <c r="L554" s="5"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -7541,7 +7971,7 @@
       <c r="K555" s="5"/>
       <c r="L555" s="5"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -7553,7 +7983,7 @@
       <c r="K556" s="5"/>
       <c r="L556" s="5"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="5"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -7565,7 +7995,7 @@
       <c r="K557" s="5"/>
       <c r="L557" s="5"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="5"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -7577,7 +8007,7 @@
       <c r="K558" s="5"/>
       <c r="L558" s="5"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="5"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -7589,7 +8019,7 @@
       <c r="K559" s="5"/>
       <c r="L559" s="5"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="5"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -7601,7 +8031,7 @@
       <c r="K560" s="5"/>
       <c r="L560" s="5"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="5"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -7613,7 +8043,7 @@
       <c r="K561" s="5"/>
       <c r="L561" s="5"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="5"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -7625,7 +8055,7 @@
       <c r="K562" s="5"/>
       <c r="L562" s="5"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="5"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -7637,7 +8067,7 @@
       <c r="K563" s="5"/>
       <c r="L563" s="5"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="5"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -7649,7 +8079,7 @@
       <c r="K564" s="5"/>
       <c r="L564" s="5"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="5"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -7661,7 +8091,7 @@
       <c r="K565" s="5"/>
       <c r="L565" s="5"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="5"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -7673,7 +8103,7 @@
       <c r="K566" s="5"/>
       <c r="L566" s="5"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -7685,7 +8115,7 @@
       <c r="K567" s="5"/>
       <c r="L567" s="5"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="5"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -7697,7 +8127,7 @@
       <c r="K568" s="5"/>
       <c r="L568" s="5"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="5"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -7709,7 +8139,7 @@
       <c r="K569" s="5"/>
       <c r="L569" s="5"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="5"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -7721,7 +8151,7 @@
       <c r="K570" s="5"/>
       <c r="L570" s="5"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="5"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -7733,7 +8163,7 @@
       <c r="K571" s="5"/>
       <c r="L571" s="5"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="5"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -7745,7 +8175,7 @@
       <c r="K572" s="5"/>
       <c r="L572" s="5"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="5"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -7757,7 +8187,7 @@
       <c r="K573" s="5"/>
       <c r="L573" s="5"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="5"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -7769,7 +8199,7 @@
       <c r="K574" s="5"/>
       <c r="L574" s="5"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="5"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -7781,7 +8211,7 @@
       <c r="K575" s="5"/>
       <c r="L575" s="5"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="5"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -7793,7 +8223,7 @@
       <c r="K576" s="5"/>
       <c r="L576" s="5"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="5"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -7805,7 +8235,7 @@
       <c r="K577" s="5"/>
       <c r="L577" s="5"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="5"/>
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
@@ -7817,7 +8247,7 @@
       <c r="K578" s="5"/>
       <c r="L578" s="5"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="5"/>
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
@@ -7829,7 +8259,7 @@
       <c r="K579" s="5"/>
       <c r="L579" s="5"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="5"/>
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
@@ -7841,7 +8271,7 @@
       <c r="K580" s="5"/>
       <c r="L580" s="5"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="5"/>
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
@@ -7853,7 +8283,7 @@
       <c r="K581" s="5"/>
       <c r="L581" s="5"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="5"/>
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
@@ -7865,7 +8295,7 @@
       <c r="K582" s="5"/>
       <c r="L582" s="5"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="5"/>
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
@@ -7877,7 +8307,7 @@
       <c r="K583" s="5"/>
       <c r="L583" s="5"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="5"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
@@ -7889,7 +8319,7 @@
       <c r="K584" s="5"/>
       <c r="L584" s="5"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="5"/>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
@@ -7901,7 +8331,7 @@
       <c r="K585" s="5"/>
       <c r="L585" s="5"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="5"/>
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
@@ -7913,7 +8343,7 @@
       <c r="K586" s="5"/>
       <c r="L586" s="5"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="5"/>
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
@@ -7925,7 +8355,7 @@
       <c r="K587" s="5"/>
       <c r="L587" s="5"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="5"/>
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
@@ -7937,7 +8367,7 @@
       <c r="K588" s="5"/>
       <c r="L588" s="5"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="5"/>
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
@@ -7949,7 +8379,7 @@
       <c r="K589" s="5"/>
       <c r="L589" s="5"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="5"/>
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
@@ -7961,7 +8391,7 @@
       <c r="K590" s="5"/>
       <c r="L590" s="5"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="5"/>
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
@@ -7973,7 +8403,7 @@
       <c r="K591" s="5"/>
       <c r="L591" s="5"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="5"/>
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
@@ -7985,7 +8415,7 @@
       <c r="K592" s="5"/>
       <c r="L592" s="5"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="5"/>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
@@ -7997,7 +8427,7 @@
       <c r="K593" s="5"/>
       <c r="L593" s="5"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="5"/>
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
@@ -8009,7 +8439,7 @@
       <c r="K594" s="5"/>
       <c r="L594" s="5"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="5"/>
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
@@ -8021,7 +8451,7 @@
       <c r="K595" s="5"/>
       <c r="L595" s="5"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="5"/>
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
@@ -8033,7 +8463,7 @@
       <c r="K596" s="5"/>
       <c r="L596" s="5"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="5"/>
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
@@ -8045,7 +8475,7 @@
       <c r="K597" s="5"/>
       <c r="L597" s="5"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="5"/>
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
@@ -8057,7 +8487,7 @@
       <c r="K598" s="5"/>
       <c r="L598" s="5"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="5"/>
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
@@ -8069,7 +8499,7 @@
       <c r="K599" s="5"/>
       <c r="L599" s="5"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="5"/>
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
@@ -8081,7 +8511,7 @@
       <c r="K600" s="5"/>
       <c r="L600" s="5"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="5"/>
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
@@ -8093,7 +8523,7 @@
       <c r="K601" s="5"/>
       <c r="L601" s="5"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="5"/>
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
@@ -8105,7 +8535,7 @@
       <c r="K602" s="5"/>
       <c r="L602" s="5"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="5"/>
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
@@ -8117,7 +8547,7 @@
       <c r="K603" s="5"/>
       <c r="L603" s="5"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="5"/>
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
@@ -8129,7 +8559,7 @@
       <c r="K604" s="5"/>
       <c r="L604" s="5"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="5"/>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
@@ -8141,7 +8571,7 @@
       <c r="K605" s="5"/>
       <c r="L605" s="5"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="5"/>
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
@@ -8153,7 +8583,7 @@
       <c r="K606" s="5"/>
       <c r="L606" s="5"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="5"/>
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
@@ -8165,7 +8595,7 @@
       <c r="K607" s="5"/>
       <c r="L607" s="5"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="5"/>
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
@@ -8177,7 +8607,7 @@
       <c r="K608" s="5"/>
       <c r="L608" s="5"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="5"/>
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
@@ -8189,7 +8619,7 @@
       <c r="K609" s="5"/>
       <c r="L609" s="5"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="5"/>
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
@@ -8201,7 +8631,7 @@
       <c r="K610" s="5"/>
       <c r="L610" s="5"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" s="5"/>
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
@@ -8213,7 +8643,7 @@
       <c r="K611" s="5"/>
       <c r="L611" s="5"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" s="5"/>
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
@@ -8225,7 +8655,7 @@
       <c r="K612" s="5"/>
       <c r="L612" s="5"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" s="5"/>
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
@@ -8237,7 +8667,7 @@
       <c r="K613" s="5"/>
       <c r="L613" s="5"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="5"/>
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
@@ -8249,7 +8679,7 @@
       <c r="K614" s="5"/>
       <c r="L614" s="5"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" s="5"/>
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
@@ -8261,7 +8691,7 @@
       <c r="K615" s="5"/>
       <c r="L615" s="5"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" s="5"/>
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
@@ -8273,7 +8703,7 @@
       <c r="K616" s="5"/>
       <c r="L616" s="5"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" s="5"/>
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
@@ -8285,7 +8715,7 @@
       <c r="K617" s="5"/>
       <c r="L617" s="5"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="5"/>
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
@@ -8297,7 +8727,7 @@
       <c r="K618" s="5"/>
       <c r="L618" s="5"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="5"/>
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
@@ -8309,7 +8739,7 @@
       <c r="K619" s="5"/>
       <c r="L619" s="5"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" s="5"/>
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
@@ -8321,7 +8751,7 @@
       <c r="K620" s="5"/>
       <c r="L620" s="5"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="5"/>
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
@@ -8333,7 +8763,7 @@
       <c r="K621" s="5"/>
       <c r="L621" s="5"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A622" s="5"/>
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
@@ -8345,7 +8775,7 @@
       <c r="K622" s="5"/>
       <c r="L622" s="5"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A623" s="5"/>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
@@ -8357,7 +8787,7 @@
       <c r="K623" s="5"/>
       <c r="L623" s="5"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
@@ -8369,7 +8799,7 @@
       <c r="K624" s="5"/>
       <c r="L624" s="5"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A625" s="5"/>
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
@@ -8381,7 +8811,7 @@
       <c r="K625" s="5"/>
       <c r="L625" s="5"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="5"/>
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
@@ -8393,7 +8823,7 @@
       <c r="K626" s="5"/>
       <c r="L626" s="5"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="5"/>
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
@@ -8405,7 +8835,7 @@
       <c r="K627" s="5"/>
       <c r="L627" s="5"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="5"/>
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
@@ -8417,7 +8847,7 @@
       <c r="K628" s="5"/>
       <c r="L628" s="5"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="5"/>
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
@@ -8429,7 +8859,7 @@
       <c r="K629" s="5"/>
       <c r="L629" s="5"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="5"/>
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
@@ -8441,7 +8871,7 @@
       <c r="K630" s="5"/>
       <c r="L630" s="5"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="5"/>
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
@@ -8453,7 +8883,7 @@
       <c r="K631" s="5"/>
       <c r="L631" s="5"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A632" s="5"/>
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
@@ -8465,7 +8895,7 @@
       <c r="K632" s="5"/>
       <c r="L632" s="5"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A633" s="5"/>
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
@@ -8477,7 +8907,7 @@
       <c r="K633" s="5"/>
       <c r="L633" s="5"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="5"/>
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
@@ -8489,7 +8919,7 @@
       <c r="K634" s="5"/>
       <c r="L634" s="5"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="5"/>
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
@@ -8501,7 +8931,7 @@
       <c r="K635" s="5"/>
       <c r="L635" s="5"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A636" s="5"/>
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
@@ -8513,7 +8943,7 @@
       <c r="K636" s="5"/>
       <c r="L636" s="5"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A637" s="5"/>
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
@@ -8525,7 +8955,7 @@
       <c r="K637" s="5"/>
       <c r="L637" s="5"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" s="5"/>
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
@@ -8537,7 +8967,7 @@
       <c r="K638" s="5"/>
       <c r="L638" s="5"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" s="5"/>
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
@@ -8549,7 +8979,7 @@
       <c r="K639" s="5"/>
       <c r="L639" s="5"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A640" s="5"/>
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
@@ -8561,7 +8991,7 @@
       <c r="K640" s="5"/>
       <c r="L640" s="5"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="5"/>
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
@@ -8573,7 +9003,7 @@
       <c r="K641" s="5"/>
       <c r="L641" s="5"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A642" s="5"/>
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
@@ -8585,7 +9015,7 @@
       <c r="K642" s="5"/>
       <c r="L642" s="5"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A643" s="5"/>
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
@@ -8597,7 +9027,7 @@
       <c r="K643" s="5"/>
       <c r="L643" s="5"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="5"/>
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
@@ -8609,7 +9039,7 @@
       <c r="K644" s="5"/>
       <c r="L644" s="5"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A645" s="5"/>
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
@@ -8621,7 +9051,7 @@
       <c r="K645" s="5"/>
       <c r="L645" s="5"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="5"/>
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
@@ -8633,7 +9063,7 @@
       <c r="K646" s="5"/>
       <c r="L646" s="5"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="5"/>
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
@@ -8645,7 +9075,7 @@
       <c r="K647" s="5"/>
       <c r="L647" s="5"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="5"/>
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
@@ -8657,7 +9087,7 @@
       <c r="K648" s="5"/>
       <c r="L648" s="5"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="5"/>
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
@@ -8669,7 +9099,7 @@
       <c r="K649" s="5"/>
       <c r="L649" s="5"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A650" s="5"/>
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
@@ -8681,7 +9111,7 @@
       <c r="K650" s="5"/>
       <c r="L650" s="5"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A651" s="5"/>
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
@@ -8693,7 +9123,7 @@
       <c r="K651" s="5"/>
       <c r="L651" s="5"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A652" s="5"/>
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
@@ -8705,7 +9135,7 @@
       <c r="K652" s="5"/>
       <c r="L652" s="5"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A653" s="5"/>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
@@ -8717,7 +9147,7 @@
       <c r="K653" s="5"/>
       <c r="L653" s="5"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A654" s="5"/>
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
@@ -8729,7 +9159,7 @@
       <c r="K654" s="5"/>
       <c r="L654" s="5"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="5"/>
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
@@ -8741,7 +9171,7 @@
       <c r="K655" s="5"/>
       <c r="L655" s="5"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A656" s="5"/>
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
@@ -8753,7 +9183,7 @@
       <c r="K656" s="5"/>
       <c r="L656" s="5"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="5"/>
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
@@ -8765,7 +9195,7 @@
       <c r="K657" s="5"/>
       <c r="L657" s="5"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="5"/>
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
@@ -8777,7 +9207,7 @@
       <c r="K658" s="5"/>
       <c r="L658" s="5"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A659" s="5"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
@@ -8789,7 +9219,7 @@
       <c r="K659" s="5"/>
       <c r="L659" s="5"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="5"/>
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
@@ -8801,7 +9231,7 @@
       <c r="K660" s="5"/>
       <c r="L660" s="5"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="5"/>
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
@@ -8813,7 +9243,7 @@
       <c r="K661" s="5"/>
       <c r="L661" s="5"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A662" s="5"/>
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
@@ -8825,7 +9255,7 @@
       <c r="K662" s="5"/>
       <c r="L662" s="5"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A663" s="5"/>
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
@@ -8837,7 +9267,7 @@
       <c r="K663" s="5"/>
       <c r="L663" s="5"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A664" s="5"/>
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
@@ -8849,7 +9279,7 @@
       <c r="K664" s="5"/>
       <c r="L664" s="5"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" s="5"/>
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
@@ -8861,7 +9291,7 @@
       <c r="K665" s="5"/>
       <c r="L665" s="5"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A666" s="5"/>
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
@@ -8873,7 +9303,7 @@
       <c r="K666" s="5"/>
       <c r="L666" s="5"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="5"/>
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
@@ -8885,7 +9315,7 @@
       <c r="K667" s="5"/>
       <c r="L667" s="5"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A668" s="5"/>
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
@@ -8897,7 +9327,7 @@
       <c r="K668" s="5"/>
       <c r="L668" s="5"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="5"/>
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
@@ -8909,7 +9339,7 @@
       <c r="K669" s="5"/>
       <c r="L669" s="5"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="5"/>
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
@@ -8921,7 +9351,7 @@
       <c r="K670" s="5"/>
       <c r="L670" s="5"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A671" s="5"/>
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
@@ -8933,7 +9363,7 @@
       <c r="K671" s="5"/>
       <c r="L671" s="5"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A672" s="5"/>
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
@@ -8945,7 +9375,7 @@
       <c r="K672" s="5"/>
       <c r="L672" s="5"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="5"/>
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
@@ -8957,7 +9387,7 @@
       <c r="K673" s="5"/>
       <c r="L673" s="5"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="5"/>
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
@@ -8969,7 +9399,7 @@
       <c r="K674" s="5"/>
       <c r="L674" s="5"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A675" s="5"/>
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
@@ -8981,7 +9411,7 @@
       <c r="K675" s="5"/>
       <c r="L675" s="5"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A676" s="5"/>
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
@@ -8993,7 +9423,7 @@
       <c r="K676" s="5"/>
       <c r="L676" s="5"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A677" s="5"/>
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
@@ -9005,7 +9435,7 @@
       <c r="K677" s="5"/>
       <c r="L677" s="5"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="5"/>
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
@@ -9017,7 +9447,7 @@
       <c r="K678" s="5"/>
       <c r="L678" s="5"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="5"/>
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
@@ -9029,7 +9459,7 @@
       <c r="K679" s="5"/>
       <c r="L679" s="5"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="5"/>
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
@@ -9041,7 +9471,7 @@
       <c r="K680" s="5"/>
       <c r="L680" s="5"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="5"/>
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
@@ -9053,7 +9483,7 @@
       <c r="K681" s="5"/>
       <c r="L681" s="5"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="5"/>
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
@@ -9065,7 +9495,7 @@
       <c r="K682" s="5"/>
       <c r="L682" s="5"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="5"/>
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
@@ -9077,7 +9507,7 @@
       <c r="K683" s="5"/>
       <c r="L683" s="5"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="5"/>
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
@@ -9089,7 +9519,7 @@
       <c r="K684" s="5"/>
       <c r="L684" s="5"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A685" s="5"/>
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
@@ -9101,7 +9531,7 @@
       <c r="K685" s="5"/>
       <c r="L685" s="5"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="5"/>
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
@@ -9113,7 +9543,7 @@
       <c r="K686" s="5"/>
       <c r="L686" s="5"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="5"/>
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
@@ -9125,7 +9555,7 @@
       <c r="K687" s="5"/>
       <c r="L687" s="5"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="5"/>
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
@@ -9137,7 +9567,7 @@
       <c r="K688" s="5"/>
       <c r="L688" s="5"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="5"/>
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
@@ -9149,7 +9579,7 @@
       <c r="K689" s="5"/>
       <c r="L689" s="5"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A690" s="5"/>
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
@@ -9161,7 +9591,7 @@
       <c r="K690" s="5"/>
       <c r="L690" s="5"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A691" s="5"/>
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
@@ -9173,7 +9603,7 @@
       <c r="K691" s="5"/>
       <c r="L691" s="5"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A692" s="5"/>
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
@@ -9185,7 +9615,7 @@
       <c r="K692" s="5"/>
       <c r="L692" s="5"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A693" s="5"/>
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
@@ -9197,7 +9627,7 @@
       <c r="K693" s="5"/>
       <c r="L693" s="5"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A694" s="5"/>
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
@@ -9209,7 +9639,7 @@
       <c r="K694" s="5"/>
       <c r="L694" s="5"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A695" s="5"/>
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
@@ -9221,7 +9651,7 @@
       <c r="K695" s="5"/>
       <c r="L695" s="5"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A696" s="5"/>
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
@@ -9233,7 +9663,7 @@
       <c r="K696" s="5"/>
       <c r="L696" s="5"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A697" s="5"/>
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
@@ -9245,7 +9675,7 @@
       <c r="K697" s="5"/>
       <c r="L697" s="5"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A698" s="5"/>
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
@@ -9257,7 +9687,7 @@
       <c r="K698" s="5"/>
       <c r="L698" s="5"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A699" s="5"/>
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
@@ -9269,7 +9699,7 @@
       <c r="K699" s="5"/>
       <c r="L699" s="5"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A700" s="5"/>
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
@@ -9281,7 +9711,7 @@
       <c r="K700" s="5"/>
       <c r="L700" s="5"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A701" s="5"/>
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
@@ -9293,7 +9723,7 @@
       <c r="K701" s="5"/>
       <c r="L701" s="5"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A702" s="5"/>
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
@@ -9305,7 +9735,7 @@
       <c r="K702" s="5"/>
       <c r="L702" s="5"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A703" s="5"/>
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
@@ -9317,7 +9747,7 @@
       <c r="K703" s="5"/>
       <c r="L703" s="5"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A704" s="5"/>
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
@@ -9329,7 +9759,7 @@
       <c r="K704" s="5"/>
       <c r="L704" s="5"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="5"/>
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
@@ -9341,7 +9771,7 @@
       <c r="K705" s="5"/>
       <c r="L705" s="5"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="5"/>
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
@@ -9353,7 +9783,7 @@
       <c r="K706" s="5"/>
       <c r="L706" s="5"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="5"/>
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
@@ -9365,7 +9795,7 @@
       <c r="K707" s="5"/>
       <c r="L707" s="5"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A708" s="5"/>
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
@@ -9377,7 +9807,7 @@
       <c r="K708" s="5"/>
       <c r="L708" s="5"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A709" s="5"/>
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
@@ -9389,7 +9819,7 @@
       <c r="K709" s="5"/>
       <c r="L709" s="5"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A710" s="5"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
@@ -9401,7 +9831,7 @@
       <c r="K710" s="5"/>
       <c r="L710" s="5"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A711" s="5"/>
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
@@ -9413,7 +9843,7 @@
       <c r="K711" s="5"/>
       <c r="L711" s="5"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="5"/>
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
@@ -9425,7 +9855,7 @@
       <c r="K712" s="5"/>
       <c r="L712" s="5"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A713" s="5"/>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
@@ -9437,7 +9867,7 @@
       <c r="K713" s="5"/>
       <c r="L713" s="5"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A714" s="5"/>
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
@@ -9449,7 +9879,7 @@
       <c r="K714" s="5"/>
       <c r="L714" s="5"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A715" s="5"/>
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
@@ -9461,7 +9891,7 @@
       <c r="K715" s="5"/>
       <c r="L715" s="5"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A716" s="5"/>
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
@@ -9473,7 +9903,7 @@
       <c r="K716" s="5"/>
       <c r="L716" s="5"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A717" s="5"/>
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
@@ -9485,7 +9915,7 @@
       <c r="K717" s="5"/>
       <c r="L717" s="5"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A718" s="5"/>
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
@@ -9497,7 +9927,7 @@
       <c r="K718" s="5"/>
       <c r="L718" s="5"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A719" s="5"/>
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
@@ -9509,7 +9939,7 @@
       <c r="K719" s="5"/>
       <c r="L719" s="5"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A720" s="5"/>
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
@@ -9521,7 +9951,7 @@
       <c r="K720" s="5"/>
       <c r="L720" s="5"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A721" s="5"/>
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
@@ -9533,7 +9963,7 @@
       <c r="K721" s="5"/>
       <c r="L721" s="5"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A722" s="5"/>
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
@@ -9545,7 +9975,7 @@
       <c r="K722" s="5"/>
       <c r="L722" s="5"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A723" s="5"/>
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
@@ -9557,7 +9987,7 @@
       <c r="K723" s="5"/>
       <c r="L723" s="5"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A724" s="5"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
@@ -9569,7 +9999,7 @@
       <c r="K724" s="5"/>
       <c r="L724" s="5"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A725" s="5"/>
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
@@ -9581,7 +10011,7 @@
       <c r="K725" s="5"/>
       <c r="L725" s="5"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A726" s="5"/>
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
@@ -9593,7 +10023,7 @@
       <c r="K726" s="5"/>
       <c r="L726" s="5"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A727" s="5"/>
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
@@ -9605,7 +10035,7 @@
       <c r="K727" s="5"/>
       <c r="L727" s="5"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A728" s="5"/>
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
@@ -9617,7 +10047,7 @@
       <c r="K728" s="5"/>
       <c r="L728" s="5"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A729" s="5"/>
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
@@ -9629,7 +10059,7 @@
       <c r="K729" s="5"/>
       <c r="L729" s="5"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A730" s="5"/>
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
@@ -9641,7 +10071,7 @@
       <c r="K730" s="5"/>
       <c r="L730" s="5"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A731" s="5"/>
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
@@ -9653,7 +10083,7 @@
       <c r="K731" s="5"/>
       <c r="L731" s="5"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A732" s="5"/>
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
@@ -9665,7 +10095,7 @@
       <c r="K732" s="5"/>
       <c r="L732" s="5"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A733" s="5"/>
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
@@ -9677,7 +10107,7 @@
       <c r="K733" s="5"/>
       <c r="L733" s="5"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A734" s="5"/>
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
@@ -9689,7 +10119,7 @@
       <c r="K734" s="5"/>
       <c r="L734" s="5"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A735" s="5"/>
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
@@ -9701,7 +10131,7 @@
       <c r="K735" s="5"/>
       <c r="L735" s="5"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A736" s="5"/>
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
@@ -9713,7 +10143,7 @@
       <c r="K736" s="5"/>
       <c r="L736" s="5"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A737" s="5"/>
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
@@ -9725,7 +10155,7 @@
       <c r="K737" s="5"/>
       <c r="L737" s="5"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A738" s="5"/>
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
@@ -9737,7 +10167,7 @@
       <c r="K738" s="5"/>
       <c r="L738" s="5"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A739" s="5"/>
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
@@ -9749,7 +10179,7 @@
       <c r="K739" s="5"/>
       <c r="L739" s="5"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A740" s="5"/>
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
@@ -9761,7 +10191,7 @@
       <c r="K740" s="5"/>
       <c r="L740" s="5"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A741" s="5"/>
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
@@ -9773,7 +10203,7 @@
       <c r="K741" s="5"/>
       <c r="L741" s="5"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A742" s="5"/>
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
@@ -9785,7 +10215,7 @@
       <c r="K742" s="5"/>
       <c r="L742" s="5"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A743" s="5"/>
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
@@ -9797,7 +10227,7 @@
       <c r="K743" s="5"/>
       <c r="L743" s="5"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A744" s="5"/>
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
@@ -9809,7 +10239,7 @@
       <c r="K744" s="5"/>
       <c r="L744" s="5"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A745" s="5"/>
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
@@ -9821,7 +10251,7 @@
       <c r="K745" s="5"/>
       <c r="L745" s="5"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A746" s="5"/>
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
@@ -9833,7 +10263,7 @@
       <c r="K746" s="5"/>
       <c r="L746" s="5"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A747" s="5"/>
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
@@ -9845,7 +10275,7 @@
       <c r="K747" s="5"/>
       <c r="L747" s="5"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A748" s="5"/>
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
@@ -9857,7 +10287,7 @@
       <c r="K748" s="5"/>
       <c r="L748" s="5"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A749" s="5"/>
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
@@ -9869,7 +10299,7 @@
       <c r="K749" s="5"/>
       <c r="L749" s="5"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A750" s="5"/>
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
@@ -9881,7 +10311,7 @@
       <c r="K750" s="5"/>
       <c r="L750" s="5"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A751" s="5"/>
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
@@ -9893,7 +10323,7 @@
       <c r="K751" s="5"/>
       <c r="L751" s="5"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A752" s="5"/>
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
@@ -9905,7 +10335,7 @@
       <c r="K752" s="5"/>
       <c r="L752" s="5"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A753" s="5"/>
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
@@ -9917,7 +10347,7 @@
       <c r="K753" s="5"/>
       <c r="L753" s="5"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A754" s="5"/>
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
@@ -9929,7 +10359,7 @@
       <c r="K754" s="5"/>
       <c r="L754" s="5"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A755" s="5"/>
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
@@ -9941,7 +10371,7 @@
       <c r="K755" s="5"/>
       <c r="L755" s="5"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A756" s="5"/>
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
@@ -9953,7 +10383,7 @@
       <c r="K756" s="5"/>
       <c r="L756" s="5"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A757" s="5"/>
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
@@ -9965,7 +10395,7 @@
       <c r="K757" s="5"/>
       <c r="L757" s="5"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A758" s="5"/>
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
@@ -9977,7 +10407,7 @@
       <c r="K758" s="5"/>
       <c r="L758" s="5"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A759" s="5"/>
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
@@ -9989,7 +10419,7 @@
       <c r="K759" s="5"/>
       <c r="L759" s="5"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A760" s="5"/>
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
@@ -10001,7 +10431,7 @@
       <c r="K760" s="5"/>
       <c r="L760" s="5"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A761" s="5"/>
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
@@ -10013,7 +10443,7 @@
       <c r="K761" s="5"/>
       <c r="L761" s="5"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A762" s="5"/>
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
@@ -10025,7 +10455,7 @@
       <c r="K762" s="5"/>
       <c r="L762" s="5"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A763" s="5"/>
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
@@ -10037,7 +10467,7 @@
       <c r="K763" s="5"/>
       <c r="L763" s="5"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A764" s="5"/>
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
@@ -10049,7 +10479,7 @@
       <c r="K764" s="5"/>
       <c r="L764" s="5"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A765" s="5"/>
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
@@ -10061,7 +10491,7 @@
       <c r="K765" s="5"/>
       <c r="L765" s="5"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A766" s="5"/>
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
@@ -10073,7 +10503,7 @@
       <c r="K766" s="5"/>
       <c r="L766" s="5"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A767" s="5"/>
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
@@ -10085,7 +10515,7 @@
       <c r="K767" s="5"/>
       <c r="L767" s="5"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" s="5"/>
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
@@ -10097,7 +10527,7 @@
       <c r="K768" s="5"/>
       <c r="L768" s="5"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A769" s="5"/>
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
@@ -10109,7 +10539,7 @@
       <c r="K769" s="5"/>
       <c r="L769" s="5"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A770" s="5"/>
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
@@ -10121,7 +10551,7 @@
       <c r="K770" s="5"/>
       <c r="L770" s="5"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A771" s="5"/>
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
@@ -10133,7 +10563,7 @@
       <c r="K771" s="5"/>
       <c r="L771" s="5"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A772" s="5"/>
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
@@ -10145,7 +10575,7 @@
       <c r="K772" s="5"/>
       <c r="L772" s="5"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A773" s="5"/>
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
@@ -10157,7 +10587,7 @@
       <c r="K773" s="5"/>
       <c r="L773" s="5"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A774" s="5"/>
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
@@ -10169,7 +10599,7 @@
       <c r="K774" s="5"/>
       <c r="L774" s="5"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A775" s="5"/>
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
@@ -10181,7 +10611,7 @@
       <c r="K775" s="5"/>
       <c r="L775" s="5"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A776" s="5"/>
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
@@ -10193,7 +10623,7 @@
       <c r="K776" s="5"/>
       <c r="L776" s="5"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A777" s="5"/>
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
@@ -10205,7 +10635,7 @@
       <c r="K777" s="5"/>
       <c r="L777" s="5"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A778" s="5"/>
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
@@ -10217,7 +10647,7 @@
       <c r="K778" s="5"/>
       <c r="L778" s="5"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A779" s="5"/>
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
@@ -10229,7 +10659,7 @@
       <c r="K779" s="5"/>
       <c r="L779" s="5"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A780" s="5"/>
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
@@ -10241,7 +10671,7 @@
       <c r="K780" s="5"/>
       <c r="L780" s="5"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A781" s="5"/>
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
@@ -10253,7 +10683,7 @@
       <c r="K781" s="5"/>
       <c r="L781" s="5"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A782" s="5"/>
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
@@ -10265,7 +10695,7 @@
       <c r="K782" s="5"/>
       <c r="L782" s="5"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A783" s="5"/>
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
@@ -10277,7 +10707,7 @@
       <c r="K783" s="5"/>
       <c r="L783" s="5"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A784" s="5"/>
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
@@ -10289,7 +10719,7 @@
       <c r="K784" s="5"/>
       <c r="L784" s="5"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A785" s="5"/>
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
@@ -10301,7 +10731,7 @@
       <c r="K785" s="5"/>
       <c r="L785" s="5"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A786" s="5"/>
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
@@ -10313,7 +10743,7 @@
       <c r="K786" s="5"/>
       <c r="L786" s="5"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A787" s="5"/>
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
@@ -10325,7 +10755,7 @@
       <c r="K787" s="5"/>
       <c r="L787" s="5"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A788" s="5"/>
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
@@ -10337,7 +10767,7 @@
       <c r="K788" s="5"/>
       <c r="L788" s="5"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A789" s="5"/>
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
@@ -10349,7 +10779,7 @@
       <c r="K789" s="5"/>
       <c r="L789" s="5"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A790" s="5"/>
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
@@ -10361,7 +10791,7 @@
       <c r="K790" s="5"/>
       <c r="L790" s="5"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A791" s="5"/>
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
@@ -10373,7 +10803,7 @@
       <c r="K791" s="5"/>
       <c r="L791" s="5"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
@@ -10385,7 +10815,7 @@
       <c r="K792" s="5"/>
       <c r="L792" s="5"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A793" s="5"/>
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
@@ -10397,7 +10827,7 @@
       <c r="K793" s="5"/>
       <c r="L793" s="5"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A794" s="5"/>
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
@@ -10409,7 +10839,7 @@
       <c r="K794" s="5"/>
       <c r="L794" s="5"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A795" s="5"/>
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
@@ -10421,7 +10851,7 @@
       <c r="K795" s="5"/>
       <c r="L795" s="5"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A796" s="5"/>
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
@@ -10433,7 +10863,7 @@
       <c r="K796" s="5"/>
       <c r="L796" s="5"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A797" s="5"/>
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
@@ -10445,7 +10875,7 @@
       <c r="K797" s="5"/>
       <c r="L797" s="5"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A798" s="5"/>
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
@@ -10457,7 +10887,7 @@
       <c r="K798" s="5"/>
       <c r="L798" s="5"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A799" s="5"/>
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
@@ -10469,7 +10899,7 @@
       <c r="K799" s="5"/>
       <c r="L799" s="5"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A800" s="5"/>
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
@@ -10481,7 +10911,7 @@
       <c r="K800" s="5"/>
       <c r="L800" s="5"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A801" s="5"/>
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
@@ -10493,7 +10923,7 @@
       <c r="K801" s="5"/>
       <c r="L801" s="5"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A802" s="5"/>
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
@@ -10505,7 +10935,7 @@
       <c r="K802" s="5"/>
       <c r="L802" s="5"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A803" s="5"/>
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
@@ -10517,7 +10947,7 @@
       <c r="K803" s="5"/>
       <c r="L803" s="5"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A804" s="5"/>
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
@@ -10529,7 +10959,7 @@
       <c r="K804" s="5"/>
       <c r="L804" s="5"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A805" s="5"/>
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
@@ -10541,7 +10971,7 @@
       <c r="K805" s="5"/>
       <c r="L805" s="5"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A806" s="5"/>
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
@@ -10553,7 +10983,7 @@
       <c r="K806" s="5"/>
       <c r="L806" s="5"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A807" s="5"/>
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
@@ -10565,7 +10995,7 @@
       <c r="K807" s="5"/>
       <c r="L807" s="5"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A808" s="5"/>
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
@@ -10577,7 +11007,7 @@
       <c r="K808" s="5"/>
       <c r="L808" s="5"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A809" s="5"/>
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
@@ -10589,7 +11019,7 @@
       <c r="K809" s="5"/>
       <c r="L809" s="5"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A810" s="5"/>
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
@@ -10601,7 +11031,7 @@
       <c r="K810" s="5"/>
       <c r="L810" s="5"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A811" s="5"/>
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
@@ -10613,7 +11043,7 @@
       <c r="K811" s="5"/>
       <c r="L811" s="5"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A812" s="5"/>
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
@@ -10625,7 +11055,7 @@
       <c r="K812" s="5"/>
       <c r="L812" s="5"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A813" s="5"/>
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
@@ -10637,7 +11067,7 @@
       <c r="K813" s="5"/>
       <c r="L813" s="5"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A814" s="5"/>
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
@@ -10649,7 +11079,7 @@
       <c r="K814" s="5"/>
       <c r="L814" s="5"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A815" s="5"/>
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
@@ -10661,7 +11091,7 @@
       <c r="K815" s="5"/>
       <c r="L815" s="5"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A816" s="5"/>
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
@@ -10673,7 +11103,7 @@
       <c r="K816" s="5"/>
       <c r="L816" s="5"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A817" s="5"/>
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
@@ -10685,7 +11115,7 @@
       <c r="K817" s="5"/>
       <c r="L817" s="5"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A818" s="5"/>
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
@@ -10697,7 +11127,7 @@
       <c r="K818" s="5"/>
       <c r="L818" s="5"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A819" s="5"/>
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
@@ -10709,7 +11139,7 @@
       <c r="K819" s="5"/>
       <c r="L819" s="5"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A820" s="5"/>
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
@@ -10721,7 +11151,7 @@
       <c r="K820" s="5"/>
       <c r="L820" s="5"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A821" s="5"/>
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
@@ -10733,7 +11163,7 @@
       <c r="K821" s="5"/>
       <c r="L821" s="5"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A822" s="5"/>
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
@@ -10745,7 +11175,7 @@
       <c r="K822" s="5"/>
       <c r="L822" s="5"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A823" s="5"/>
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
@@ -10757,7 +11187,7 @@
       <c r="K823" s="5"/>
       <c r="L823" s="5"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A824" s="5"/>
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
@@ -10769,7 +11199,7 @@
       <c r="K824" s="5"/>
       <c r="L824" s="5"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A825" s="5"/>
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
@@ -10781,7 +11211,7 @@
       <c r="K825" s="5"/>
       <c r="L825" s="5"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A826" s="5"/>
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
@@ -10793,7 +11223,7 @@
       <c r="K826" s="5"/>
       <c r="L826" s="5"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A827" s="5"/>
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
@@ -10805,7 +11235,7 @@
       <c r="K827" s="5"/>
       <c r="L827" s="5"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A828" s="5"/>
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
@@ -10817,7 +11247,7 @@
       <c r="K828" s="5"/>
       <c r="L828" s="5"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A829" s="5"/>
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
@@ -10829,7 +11259,7 @@
       <c r="K829" s="5"/>
       <c r="L829" s="5"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A830" s="5"/>
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
@@ -10841,7 +11271,7 @@
       <c r="K830" s="5"/>
       <c r="L830" s="5"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A831" s="5"/>
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
@@ -10853,7 +11283,7 @@
       <c r="K831" s="5"/>
       <c r="L831" s="5"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A832" s="5"/>
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
@@ -10865,7 +11295,7 @@
       <c r="K832" s="5"/>
       <c r="L832" s="5"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A833" s="5"/>
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
@@ -10877,7 +11307,7 @@
       <c r="K833" s="5"/>
       <c r="L833" s="5"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A834" s="5"/>
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
@@ -10889,7 +11319,7 @@
       <c r="K834" s="5"/>
       <c r="L834" s="5"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A835" s="5"/>
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
@@ -10901,7 +11331,7 @@
       <c r="K835" s="5"/>
       <c r="L835" s="5"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A836" s="5"/>
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
@@ -10913,7 +11343,7 @@
       <c r="K836" s="5"/>
       <c r="L836" s="5"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A837" s="5"/>
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
@@ -10925,7 +11355,7 @@
       <c r="K837" s="5"/>
       <c r="L837" s="5"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A838" s="5"/>
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
@@ -10937,7 +11367,7 @@
       <c r="K838" s="5"/>
       <c r="L838" s="5"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A839" s="5"/>
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
@@ -10949,7 +11379,7 @@
       <c r="K839" s="5"/>
       <c r="L839" s="5"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A840" s="5"/>
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
@@ -10961,7 +11391,7 @@
       <c r="K840" s="5"/>
       <c r="L840" s="5"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A841" s="5"/>
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
@@ -10973,7 +11403,7 @@
       <c r="K841" s="5"/>
       <c r="L841" s="5"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A842" s="5"/>
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
@@ -10985,7 +11415,7 @@
       <c r="K842" s="5"/>
       <c r="L842" s="5"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A843" s="5"/>
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
@@ -10997,7 +11427,7 @@
       <c r="K843" s="5"/>
       <c r="L843" s="5"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A844" s="5"/>
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
@@ -11009,7 +11439,7 @@
       <c r="K844" s="5"/>
       <c r="L844" s="5"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A845" s="5"/>
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
@@ -11021,7 +11451,7 @@
       <c r="K845" s="5"/>
       <c r="L845" s="5"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A846" s="5"/>
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
@@ -11033,7 +11463,7 @@
       <c r="K846" s="5"/>
       <c r="L846" s="5"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A847" s="5"/>
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
@@ -11045,7 +11475,7 @@
       <c r="K847" s="5"/>
       <c r="L847" s="5"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A848" s="5"/>
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
@@ -11057,7 +11487,7 @@
       <c r="K848" s="5"/>
       <c r="L848" s="5"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A849" s="5"/>
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
@@ -11069,7 +11499,7 @@
       <c r="K849" s="5"/>
       <c r="L849" s="5"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A850" s="5"/>
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
@@ -11081,7 +11511,7 @@
       <c r="K850" s="5"/>
       <c r="L850" s="5"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A851" s="5"/>
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
@@ -11093,7 +11523,7 @@
       <c r="K851" s="5"/>
       <c r="L851" s="5"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A852" s="5"/>
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
@@ -11105,7 +11535,7 @@
       <c r="K852" s="5"/>
       <c r="L852" s="5"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A853" s="5"/>
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
@@ -11117,7 +11547,7 @@
       <c r="K853" s="5"/>
       <c r="L853" s="5"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A854" s="5"/>
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
@@ -11129,7 +11559,7 @@
       <c r="K854" s="5"/>
       <c r="L854" s="5"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A855" s="5"/>
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
@@ -11141,7 +11571,7 @@
       <c r="K855" s="5"/>
       <c r="L855" s="5"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A856" s="5"/>
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
@@ -11153,7 +11583,7 @@
       <c r="K856" s="5"/>
       <c r="L856" s="5"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A857" s="5"/>
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
@@ -11165,7 +11595,7 @@
       <c r="K857" s="5"/>
       <c r="L857" s="5"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A858" s="5"/>
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
@@ -11177,7 +11607,7 @@
       <c r="K858" s="5"/>
       <c r="L858" s="5"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A859" s="5"/>
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
@@ -11189,7 +11619,7 @@
       <c r="K859" s="5"/>
       <c r="L859" s="5"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A860" s="5"/>
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
@@ -11201,7 +11631,7 @@
       <c r="K860" s="5"/>
       <c r="L860" s="5"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A861" s="5"/>
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
@@ -11213,7 +11643,7 @@
       <c r="K861" s="5"/>
       <c r="L861" s="5"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A862" s="5"/>
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
@@ -11225,7 +11655,7 @@
       <c r="K862" s="5"/>
       <c r="L862" s="5"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A863" s="5"/>
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
@@ -11237,7 +11667,7 @@
       <c r="K863" s="5"/>
       <c r="L863" s="5"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A864" s="5"/>
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
@@ -11249,7 +11679,7 @@
       <c r="K864" s="5"/>
       <c r="L864" s="5"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A865" s="5"/>
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
@@ -11261,7 +11691,7 @@
       <c r="K865" s="5"/>
       <c r="L865" s="5"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A866" s="5"/>
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
@@ -11273,7 +11703,7 @@
       <c r="K866" s="5"/>
       <c r="L866" s="5"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A867" s="5"/>
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
@@ -11285,7 +11715,7 @@
       <c r="K867" s="5"/>
       <c r="L867" s="5"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A868" s="5"/>
       <c r="D868" s="5"/>
       <c r="E868" s="5"/>
@@ -11297,7 +11727,7 @@
       <c r="K868" s="5"/>
       <c r="L868" s="5"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A869" s="5"/>
       <c r="D869" s="5"/>
       <c r="E869" s="5"/>
@@ -11309,7 +11739,7 @@
       <c r="K869" s="5"/>
       <c r="L869" s="5"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A870" s="5"/>
       <c r="D870" s="5"/>
       <c r="E870" s="5"/>
@@ -11321,7 +11751,7 @@
       <c r="K870" s="5"/>
       <c r="L870" s="5"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A871" s="5"/>
       <c r="D871" s="5"/>
       <c r="E871" s="5"/>
@@ -11333,7 +11763,7 @@
       <c r="K871" s="5"/>
       <c r="L871" s="5"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A872" s="5"/>
       <c r="D872" s="5"/>
       <c r="E872" s="5"/>
@@ -11345,7 +11775,7 @@
       <c r="K872" s="5"/>
       <c r="L872" s="5"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A873" s="5"/>
       <c r="D873" s="5"/>
       <c r="E873" s="5"/>
@@ -11357,7 +11787,7 @@
       <c r="K873" s="5"/>
       <c r="L873" s="5"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A874" s="5"/>
       <c r="D874" s="5"/>
       <c r="E874" s="5"/>
@@ -11369,7 +11799,7 @@
       <c r="K874" s="5"/>
       <c r="L874" s="5"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A875" s="5"/>
       <c r="D875" s="5"/>
       <c r="E875" s="5"/>
@@ -11381,7 +11811,7 @@
       <c r="K875" s="5"/>
       <c r="L875" s="5"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A876" s="5"/>
       <c r="D876" s="5"/>
       <c r="E876" s="5"/>
@@ -11393,7 +11823,7 @@
       <c r="K876" s="5"/>
       <c r="L876" s="5"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A877" s="5"/>
       <c r="D877" s="5"/>
       <c r="E877" s="5"/>
@@ -11405,7 +11835,7 @@
       <c r="K877" s="5"/>
       <c r="L877" s="5"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A878" s="5"/>
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
@@ -11417,7 +11847,7 @@
       <c r="K878" s="5"/>
       <c r="L878" s="5"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A879" s="5"/>
       <c r="D879" s="5"/>
       <c r="E879" s="5"/>
@@ -11429,7 +11859,7 @@
       <c r="K879" s="5"/>
       <c r="L879" s="5"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A880" s="5"/>
       <c r="D880" s="5"/>
       <c r="E880" s="5"/>
@@ -11441,7 +11871,7 @@
       <c r="K880" s="5"/>
       <c r="L880" s="5"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A881" s="5"/>
       <c r="D881" s="5"/>
       <c r="E881" s="5"/>
@@ -11453,7 +11883,7 @@
       <c r="K881" s="5"/>
       <c r="L881" s="5"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A882" s="5"/>
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
@@ -11465,7 +11895,7 @@
       <c r="K882" s="5"/>
       <c r="L882" s="5"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A883" s="5"/>
       <c r="D883" s="5"/>
       <c r="E883" s="5"/>
@@ -11477,7 +11907,7 @@
       <c r="K883" s="5"/>
       <c r="L883" s="5"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A884" s="5"/>
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
@@ -11489,7 +11919,7 @@
       <c r="K884" s="5"/>
       <c r="L884" s="5"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A885" s="5"/>
       <c r="D885" s="5"/>
       <c r="E885" s="5"/>
@@ -11501,7 +11931,7 @@
       <c r="K885" s="5"/>
       <c r="L885" s="5"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A886" s="5"/>
       <c r="D886" s="5"/>
       <c r="E886" s="5"/>
@@ -11513,7 +11943,7 @@
       <c r="K886" s="5"/>
       <c r="L886" s="5"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A887" s="5"/>
       <c r="D887" s="5"/>
       <c r="E887" s="5"/>
@@ -11525,7 +11955,7 @@
       <c r="K887" s="5"/>
       <c r="L887" s="5"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A888" s="5"/>
       <c r="D888" s="5"/>
       <c r="E888" s="5"/>
@@ -11537,7 +11967,7 @@
       <c r="K888" s="5"/>
       <c r="L888" s="5"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A889" s="5"/>
       <c r="D889" s="5"/>
       <c r="E889" s="5"/>
@@ -11549,7 +11979,7 @@
       <c r="K889" s="5"/>
       <c r="L889" s="5"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A890" s="5"/>
       <c r="D890" s="5"/>
       <c r="E890" s="5"/>
@@ -11561,7 +11991,7 @@
       <c r="K890" s="5"/>
       <c r="L890" s="5"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A891" s="5"/>
       <c r="D891" s="5"/>
       <c r="E891" s="5"/>
@@ -11573,7 +12003,7 @@
       <c r="K891" s="5"/>
       <c r="L891" s="5"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A892" s="5"/>
       <c r="D892" s="5"/>
       <c r="E892" s="5"/>
@@ -11585,7 +12015,7 @@
       <c r="K892" s="5"/>
       <c r="L892" s="5"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A893" s="5"/>
       <c r="D893" s="5"/>
       <c r="E893" s="5"/>
@@ -11597,7 +12027,7 @@
       <c r="K893" s="5"/>
       <c r="L893" s="5"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A894" s="5"/>
       <c r="D894" s="5"/>
       <c r="E894" s="5"/>
@@ -11609,7 +12039,7 @@
       <c r="K894" s="5"/>
       <c r="L894" s="5"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A895" s="5"/>
       <c r="D895" s="5"/>
       <c r="E895" s="5"/>
@@ -11621,7 +12051,7 @@
       <c r="K895" s="5"/>
       <c r="L895" s="5"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A896" s="5"/>
       <c r="D896" s="5"/>
       <c r="E896" s="5"/>
@@ -11633,7 +12063,7 @@
       <c r="K896" s="5"/>
       <c r="L896" s="5"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A897" s="5"/>
       <c r="D897" s="5"/>
       <c r="E897" s="5"/>
@@ -11645,7 +12075,7 @@
       <c r="K897" s="5"/>
       <c r="L897" s="5"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A898" s="5"/>
       <c r="D898" s="5"/>
       <c r="E898" s="5"/>
@@ -11657,7 +12087,7 @@
       <c r="K898" s="5"/>
       <c r="L898" s="5"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A899" s="5"/>
       <c r="D899" s="5"/>
       <c r="E899" s="5"/>
@@ -11669,7 +12099,7 @@
       <c r="K899" s="5"/>
       <c r="L899" s="5"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A900" s="5"/>
       <c r="D900" s="5"/>
       <c r="E900" s="5"/>
@@ -11681,7 +12111,7 @@
       <c r="K900" s="5"/>
       <c r="L900" s="5"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A901" s="5"/>
       <c r="D901" s="5"/>
       <c r="E901" s="5"/>
@@ -11693,7 +12123,7 @@
       <c r="K901" s="5"/>
       <c r="L901" s="5"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A902" s="5"/>
       <c r="D902" s="5"/>
       <c r="E902" s="5"/>
@@ -11705,7 +12135,7 @@
       <c r="K902" s="5"/>
       <c r="L902" s="5"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A903" s="5"/>
       <c r="D903" s="5"/>
       <c r="E903" s="5"/>
@@ -11717,7 +12147,7 @@
       <c r="K903" s="5"/>
       <c r="L903" s="5"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A904" s="5"/>
       <c r="D904" s="5"/>
       <c r="E904" s="5"/>
@@ -11729,7 +12159,7 @@
       <c r="K904" s="5"/>
       <c r="L904" s="5"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A905" s="5"/>
       <c r="D905" s="5"/>
       <c r="E905" s="5"/>
@@ -11741,7 +12171,7 @@
       <c r="K905" s="5"/>
       <c r="L905" s="5"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A906" s="5"/>
       <c r="D906" s="5"/>
       <c r="E906" s="5"/>
@@ -11753,7 +12183,7 @@
       <c r="K906" s="5"/>
       <c r="L906" s="5"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A907" s="5"/>
       <c r="D907" s="5"/>
       <c r="E907" s="5"/>
@@ -11765,7 +12195,7 @@
       <c r="K907" s="5"/>
       <c r="L907" s="5"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A908" s="5"/>
       <c r="D908" s="5"/>
       <c r="E908" s="5"/>
@@ -11777,7 +12207,7 @@
       <c r="K908" s="5"/>
       <c r="L908" s="5"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A909" s="5"/>
       <c r="D909" s="5"/>
       <c r="E909" s="5"/>
@@ -11789,7 +12219,7 @@
       <c r="K909" s="5"/>
       <c r="L909" s="5"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A910" s="5"/>
       <c r="D910" s="5"/>
       <c r="E910" s="5"/>
@@ -11801,7 +12231,7 @@
       <c r="K910" s="5"/>
       <c r="L910" s="5"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A911" s="5"/>
       <c r="D911" s="5"/>
       <c r="E911" s="5"/>
@@ -11813,7 +12243,7 @@
       <c r="K911" s="5"/>
       <c r="L911" s="5"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A912" s="5"/>
       <c r="D912" s="5"/>
       <c r="E912" s="5"/>
@@ -11825,7 +12255,7 @@
       <c r="K912" s="5"/>
       <c r="L912" s="5"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A913" s="5"/>
       <c r="D913" s="5"/>
       <c r="E913" s="5"/>
@@ -11837,7 +12267,7 @@
       <c r="K913" s="5"/>
       <c r="L913" s="5"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A914" s="5"/>
       <c r="D914" s="5"/>
       <c r="E914" s="5"/>
@@ -11849,7 +12279,7 @@
       <c r="K914" s="5"/>
       <c r="L914" s="5"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A915" s="5"/>
       <c r="D915" s="5"/>
       <c r="E915" s="5"/>
@@ -11861,7 +12291,7 @@
       <c r="K915" s="5"/>
       <c r="L915" s="5"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A916" s="5"/>
       <c r="D916" s="5"/>
       <c r="E916" s="5"/>
@@ -11873,7 +12303,7 @@
       <c r="K916" s="5"/>
       <c r="L916" s="5"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A917" s="5"/>
       <c r="D917" s="5"/>
       <c r="E917" s="5"/>
@@ -11885,7 +12315,7 @@
       <c r="K917" s="5"/>
       <c r="L917" s="5"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A918" s="5"/>
       <c r="D918" s="5"/>
       <c r="E918" s="5"/>
@@ -11897,7 +12327,7 @@
       <c r="K918" s="5"/>
       <c r="L918" s="5"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A919" s="5"/>
       <c r="D919" s="5"/>
       <c r="E919" s="5"/>
@@ -11909,7 +12339,7 @@
       <c r="K919" s="5"/>
       <c r="L919" s="5"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A920" s="5"/>
       <c r="D920" s="5"/>
       <c r="E920" s="5"/>
@@ -11921,7 +12351,7 @@
       <c r="K920" s="5"/>
       <c r="L920" s="5"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A921" s="5"/>
       <c r="D921" s="5"/>
       <c r="E921" s="5"/>
@@ -11933,7 +12363,7 @@
       <c r="K921" s="5"/>
       <c r="L921" s="5"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A922" s="5"/>
       <c r="D922" s="5"/>
       <c r="E922" s="5"/>
@@ -11945,7 +12375,7 @@
       <c r="K922" s="5"/>
       <c r="L922" s="5"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A923" s="5"/>
       <c r="D923" s="5"/>
       <c r="E923" s="5"/>
@@ -11957,7 +12387,7 @@
       <c r="K923" s="5"/>
       <c r="L923" s="5"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A924" s="5"/>
       <c r="D924" s="5"/>
       <c r="E924" s="5"/>
@@ -11969,7 +12399,7 @@
       <c r="K924" s="5"/>
       <c r="L924" s="5"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A925" s="5"/>
       <c r="D925" s="5"/>
       <c r="E925" s="5"/>
@@ -11981,7 +12411,7 @@
       <c r="K925" s="5"/>
       <c r="L925" s="5"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A926" s="5"/>
       <c r="D926" s="5"/>
       <c r="E926" s="5"/>
@@ -11993,7 +12423,7 @@
       <c r="K926" s="5"/>
       <c r="L926" s="5"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A927" s="5"/>
       <c r="D927" s="5"/>
       <c r="E927" s="5"/>
@@ -12005,7 +12435,7 @@
       <c r="K927" s="5"/>
       <c r="L927" s="5"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A928" s="5"/>
       <c r="D928" s="5"/>
       <c r="E928" s="5"/>
@@ -12017,7 +12447,7 @@
       <c r="K928" s="5"/>
       <c r="L928" s="5"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A929" s="5"/>
       <c r="D929" s="5"/>
       <c r="E929" s="5"/>
@@ -12029,7 +12459,7 @@
       <c r="K929" s="5"/>
       <c r="L929" s="5"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A930" s="5"/>
       <c r="D930" s="5"/>
       <c r="E930" s="5"/>
@@ -12041,7 +12471,7 @@
       <c r="K930" s="5"/>
       <c r="L930" s="5"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A931" s="5"/>
       <c r="D931" s="5"/>
       <c r="E931" s="5"/>
@@ -12053,7 +12483,7 @@
       <c r="K931" s="5"/>
       <c r="L931" s="5"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A932" s="5"/>
       <c r="D932" s="5"/>
       <c r="E932" s="5"/>
@@ -12065,7 +12495,7 @@
       <c r="K932" s="5"/>
       <c r="L932" s="5"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A933" s="5"/>
       <c r="D933" s="5"/>
       <c r="E933" s="5"/>
@@ -12077,7 +12507,7 @@
       <c r="K933" s="5"/>
       <c r="L933" s="5"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A934" s="5"/>
       <c r="D934" s="5"/>
       <c r="E934" s="5"/>
@@ -12089,7 +12519,7 @@
       <c r="K934" s="5"/>
       <c r="L934" s="5"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A935" s="5"/>
       <c r="D935" s="5"/>
       <c r="E935" s="5"/>
@@ -12101,7 +12531,7 @@
       <c r="K935" s="5"/>
       <c r="L935" s="5"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A936" s="5"/>
       <c r="D936" s="5"/>
       <c r="E936" s="5"/>
@@ -12113,7 +12543,7 @@
       <c r="K936" s="5"/>
       <c r="L936" s="5"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A937" s="5"/>
       <c r="D937" s="5"/>
       <c r="E937" s="5"/>
@@ -12125,7 +12555,7 @@
       <c r="K937" s="5"/>
       <c r="L937" s="5"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A938" s="5"/>
       <c r="D938" s="5"/>
       <c r="E938" s="5"/>
@@ -12137,7 +12567,7 @@
       <c r="K938" s="5"/>
       <c r="L938" s="5"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A939" s="5"/>
       <c r="D939" s="5"/>
       <c r="E939" s="5"/>
@@ -12149,7 +12579,7 @@
       <c r="K939" s="5"/>
       <c r="L939" s="5"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A940" s="5"/>
       <c r="D940" s="5"/>
       <c r="E940" s="5"/>
@@ -12161,7 +12591,7 @@
       <c r="K940" s="5"/>
       <c r="L940" s="5"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A941" s="5"/>
       <c r="D941" s="5"/>
       <c r="E941" s="5"/>
@@ -12173,7 +12603,7 @@
       <c r="K941" s="5"/>
       <c r="L941" s="5"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A942" s="5"/>
       <c r="D942" s="5"/>
       <c r="E942" s="5"/>
@@ -12185,7 +12615,7 @@
       <c r="K942" s="5"/>
       <c r="L942" s="5"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A943" s="5"/>
       <c r="D943" s="5"/>
       <c r="E943" s="5"/>
@@ -12197,7 +12627,7 @@
       <c r="K943" s="5"/>
       <c r="L943" s="5"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A944" s="5"/>
       <c r="D944" s="5"/>
       <c r="E944" s="5"/>
@@ -12209,7 +12639,7 @@
       <c r="K944" s="5"/>
       <c r="L944" s="5"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A945" s="5"/>
       <c r="D945" s="5"/>
       <c r="E945" s="5"/>
@@ -12221,7 +12651,7 @@
       <c r="K945" s="5"/>
       <c r="L945" s="5"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A946" s="5"/>
       <c r="D946" s="5"/>
       <c r="E946" s="5"/>
@@ -12233,7 +12663,7 @@
       <c r="K946" s="5"/>
       <c r="L946" s="5"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A947" s="5"/>
       <c r="D947" s="5"/>
       <c r="E947" s="5"/>
@@ -12245,7 +12675,7 @@
       <c r="K947" s="5"/>
       <c r="L947" s="5"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A948" s="5"/>
       <c r="D948" s="5"/>
       <c r="E948" s="5"/>
@@ -12257,7 +12687,7 @@
       <c r="K948" s="5"/>
       <c r="L948" s="5"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A949" s="5"/>
       <c r="D949" s="5"/>
       <c r="E949" s="5"/>
@@ -12269,7 +12699,7 @@
       <c r="K949" s="5"/>
       <c r="L949" s="5"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A950" s="5"/>
       <c r="D950" s="5"/>
       <c r="E950" s="5"/>
@@ -12281,7 +12711,7 @@
       <c r="K950" s="5"/>
       <c r="L950" s="5"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A951" s="5"/>
       <c r="D951" s="5"/>
       <c r="E951" s="5"/>
@@ -12293,7 +12723,7 @@
       <c r="K951" s="5"/>
       <c r="L951" s="5"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A952" s="5"/>
       <c r="D952" s="5"/>
       <c r="E952" s="5"/>
@@ -12305,7 +12735,7 @@
       <c r="K952" s="5"/>
       <c r="L952" s="5"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A953" s="5"/>
       <c r="D953" s="5"/>
       <c r="E953" s="5"/>
@@ -12317,7 +12747,7 @@
       <c r="K953" s="5"/>
       <c r="L953" s="5"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A954" s="5"/>
       <c r="D954" s="5"/>
       <c r="E954" s="5"/>
@@ -12329,7 +12759,7 @@
       <c r="K954" s="5"/>
       <c r="L954" s="5"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A955" s="5"/>
       <c r="D955" s="5"/>
       <c r="E955" s="5"/>
@@ -12341,7 +12771,7 @@
       <c r="K955" s="5"/>
       <c r="L955" s="5"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A956" s="5"/>
       <c r="D956" s="5"/>
       <c r="E956" s="5"/>
@@ -12353,7 +12783,7 @@
       <c r="K956" s="5"/>
       <c r="L956" s="5"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A957" s="5"/>
       <c r="D957" s="5"/>
       <c r="E957" s="5"/>
@@ -12365,7 +12795,7 @@
       <c r="K957" s="5"/>
       <c r="L957" s="5"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A958" s="5"/>
       <c r="D958" s="5"/>
       <c r="E958" s="5"/>
@@ -12377,7 +12807,7 @@
       <c r="K958" s="5"/>
       <c r="L958" s="5"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A959" s="5"/>
       <c r="D959" s="5"/>
       <c r="E959" s="5"/>
@@ -12389,7 +12819,7 @@
       <c r="K959" s="5"/>
       <c r="L959" s="5"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A960" s="5"/>
       <c r="D960" s="5"/>
       <c r="E960" s="5"/>
@@ -12401,7 +12831,7 @@
       <c r="K960" s="5"/>
       <c r="L960" s="5"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A961" s="5"/>
       <c r="D961" s="5"/>
       <c r="E961" s="5"/>
@@ -12413,7 +12843,7 @@
       <c r="K961" s="5"/>
       <c r="L961" s="5"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A962" s="5"/>
       <c r="D962" s="5"/>
       <c r="E962" s="5"/>
@@ -12425,7 +12855,7 @@
       <c r="K962" s="5"/>
       <c r="L962" s="5"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A963" s="5"/>
       <c r="D963" s="5"/>
       <c r="E963" s="5"/>
@@ -12437,7 +12867,7 @@
       <c r="K963" s="5"/>
       <c r="L963" s="5"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A964" s="5"/>
       <c r="D964" s="5"/>
       <c r="E964" s="5"/>
@@ -12449,7 +12879,7 @@
       <c r="K964" s="5"/>
       <c r="L964" s="5"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A965" s="5"/>
       <c r="D965" s="5"/>
       <c r="E965" s="5"/>
@@ -12461,7 +12891,7 @@
       <c r="K965" s="5"/>
       <c r="L965" s="5"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A966" s="5"/>
       <c r="D966" s="5"/>
       <c r="E966" s="5"/>
@@ -12473,7 +12903,7 @@
       <c r="K966" s="5"/>
       <c r="L966" s="5"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A967" s="5"/>
       <c r="D967" s="5"/>
       <c r="E967" s="5"/>
@@ -12485,7 +12915,7 @@
       <c r="K967" s="5"/>
       <c r="L967" s="5"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A968" s="5"/>
       <c r="D968" s="5"/>
       <c r="E968" s="5"/>
@@ -12497,7 +12927,7 @@
       <c r="K968" s="5"/>
       <c r="L968" s="5"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A969" s="5"/>
       <c r="D969" s="5"/>
       <c r="E969" s="5"/>
@@ -12509,7 +12939,7 @@
       <c r="K969" s="5"/>
       <c r="L969" s="5"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A970" s="5"/>
       <c r="D970" s="5"/>
       <c r="E970" s="5"/>
@@ -12521,7 +12951,7 @@
       <c r="K970" s="5"/>
       <c r="L970" s="5"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A971" s="5"/>
       <c r="D971" s="5"/>
       <c r="E971" s="5"/>
@@ -12533,7 +12963,7 @@
       <c r="K971" s="5"/>
       <c r="L971" s="5"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A972" s="5"/>
       <c r="D972" s="5"/>
       <c r="E972" s="5"/>
@@ -12545,7 +12975,7 @@
       <c r="K972" s="5"/>
       <c r="L972" s="5"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A973" s="5"/>
       <c r="D973" s="5"/>
       <c r="E973" s="5"/>
@@ -12557,7 +12987,7 @@
       <c r="K973" s="5"/>
       <c r="L973" s="5"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A974" s="5"/>
       <c r="D974" s="5"/>
       <c r="E974" s="5"/>
@@ -12569,7 +12999,7 @@
       <c r="K974" s="5"/>
       <c r="L974" s="5"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A975" s="5"/>
       <c r="D975" s="5"/>
       <c r="E975" s="5"/>
@@ -12581,7 +13011,7 @@
       <c r="K975" s="5"/>
       <c r="L975" s="5"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A976" s="5"/>
       <c r="D976" s="5"/>
       <c r="E976" s="5"/>
@@ -12593,7 +13023,7 @@
       <c r="K976" s="5"/>
       <c r="L976" s="5"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A977" s="5"/>
       <c r="D977" s="5"/>
       <c r="E977" s="5"/>
@@ -12605,7 +13035,7 @@
       <c r="K977" s="5"/>
       <c r="L977" s="5"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A978" s="5"/>
       <c r="D978" s="5"/>
       <c r="E978" s="5"/>
@@ -12617,7 +13047,7 @@
       <c r="K978" s="5"/>
       <c r="L978" s="5"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A979" s="5"/>
       <c r="D979" s="5"/>
       <c r="E979" s="5"/>
@@ -12629,7 +13059,7 @@
       <c r="K979" s="5"/>
       <c r="L979" s="5"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A980" s="5"/>
       <c r="D980" s="5"/>
       <c r="E980" s="5"/>
@@ -12641,7 +13071,7 @@
       <c r="K980" s="5"/>
       <c r="L980" s="5"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A981" s="5"/>
       <c r="D981" s="5"/>
       <c r="E981" s="5"/>
@@ -12653,7 +13083,7 @@
       <c r="K981" s="5"/>
       <c r="L981" s="5"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A982" s="5"/>
       <c r="D982" s="5"/>
       <c r="E982" s="5"/>
@@ -12665,7 +13095,7 @@
       <c r="K982" s="5"/>
       <c r="L982" s="5"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A983" s="5"/>
       <c r="D983" s="5"/>
       <c r="E983" s="5"/>
@@ -12677,7 +13107,7 @@
       <c r="K983" s="5"/>
       <c r="L983" s="5"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A984" s="5"/>
       <c r="D984" s="5"/>
       <c r="E984" s="5"/>
@@ -12689,7 +13119,7 @@
       <c r="K984" s="5"/>
       <c r="L984" s="5"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A985" s="5"/>
       <c r="D985" s="5"/>
       <c r="E985" s="5"/>
@@ -12701,7 +13131,7 @@
       <c r="K985" s="5"/>
       <c r="L985" s="5"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A986" s="5"/>
       <c r="D986" s="5"/>
       <c r="E986" s="5"/>
@@ -12713,7 +13143,7 @@
       <c r="K986" s="5"/>
       <c r="L986" s="5"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A987" s="5"/>
       <c r="D987" s="5"/>
       <c r="E987" s="5"/>
@@ -12725,7 +13155,7 @@
       <c r="K987" s="5"/>
       <c r="L987" s="5"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A988" s="5"/>
       <c r="D988" s="5"/>
       <c r="E988" s="5"/>
@@ -12737,7 +13167,7 @@
       <c r="K988" s="5"/>
       <c r="L988" s="5"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A989" s="5"/>
       <c r="D989" s="5"/>
       <c r="E989" s="5"/>
@@ -12749,7 +13179,7 @@
       <c r="K989" s="5"/>
       <c r="L989" s="5"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A990" s="5"/>
       <c r="D990" s="5"/>
       <c r="E990" s="5"/>
@@ -12761,7 +13191,7 @@
       <c r="K990" s="5"/>
       <c r="L990" s="5"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A991" s="5"/>
       <c r="D991" s="5"/>
       <c r="E991" s="5"/>
@@ -12773,7 +13203,7 @@
       <c r="K991" s="5"/>
       <c r="L991" s="5"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A992" s="5"/>
       <c r="D992" s="5"/>
       <c r="E992" s="5"/>
@@ -12785,7 +13215,7 @@
       <c r="K992" s="5"/>
       <c r="L992" s="5"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A993" s="5"/>
       <c r="D993" s="5"/>
       <c r="E993" s="5"/>
@@ -12797,7 +13227,7 @@
       <c r="K993" s="5"/>
       <c r="L993" s="5"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A994" s="5"/>
       <c r="D994" s="5"/>
       <c r="E994" s="5"/>
@@ -12809,7 +13239,7 @@
       <c r="K994" s="5"/>
       <c r="L994" s="5"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A995" s="5"/>
       <c r="D995" s="5"/>
       <c r="E995" s="5"/>
@@ -12821,7 +13251,7 @@
       <c r="K995" s="5"/>
       <c r="L995" s="5"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A996" s="5"/>
       <c r="D996" s="5"/>
       <c r="E996" s="5"/>
@@ -12833,43 +13263,7 @@
       <c r="K996" s="5"/>
       <c r="L996" s="5"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="5"/>
-      <c r="D997" s="5"/>
-      <c r="E997" s="5"/>
-      <c r="F997" s="5"/>
-      <c r="G997" s="5"/>
-      <c r="H997" s="5"/>
-      <c r="I997" s="5"/>
-      <c r="J997" s="5"/>
-      <c r="K997" s="5"/>
-      <c r="L997" s="5"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="5"/>
-      <c r="D998" s="5"/>
-      <c r="E998" s="5"/>
-      <c r="F998" s="5"/>
-      <c r="G998" s="5"/>
-      <c r="H998" s="5"/>
-      <c r="I998" s="5"/>
-      <c r="J998" s="5"/>
-      <c r="K998" s="5"/>
-      <c r="L998" s="5"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="5"/>
-      <c r="D999" s="5"/>
-      <c r="E999" s="5"/>
-      <c r="F999" s="5"/>
-      <c r="G999" s="5"/>
-      <c r="H999" s="5"/>
-      <c r="I999" s="5"/>
-      <c r="J999" s="5"/>
-      <c r="K999" s="5"/>
-      <c r="L999" s="5"/>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>